--- a/AfDD_2025_Annex_Table_Tab28.xlsx
+++ b/AfDD_2025_Annex_Table_Tab28.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF57B0B6-D188-41B9-8CF5-6D45F62F0824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6387F813-5807-41E0-93DD-1040F3ED7C35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{6314B1BC-2E6E-42FE-A514-61CCBC324091}"/>
+    <workbookView xWindow="28680" yWindow="-6075" windowWidth="29040" windowHeight="15720" xr2:uid="{424E5B6A-4B75-406D-85F3-7BAC2544AF00}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab28" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab28'!$A$2:$O$98</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab28'!$A$1:$O$98</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab28'!$A$2:$N$98</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab28'!$A$1:$N$98</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="282">
   <si>
     <t>Table 28: Export diversification</t>
   </si>
@@ -84,9 +84,6 @@
     <t>Number of products amounting to 90% of total exports, 2023</t>
   </si>
   <si>
-    <t>Value of total exports of goods and services as a % of GDP, 2023</t>
-  </si>
-  <si>
     <t>AGO</t>
   </si>
   <si>
@@ -108,753 +105,753 @@
     <t>Light-vessels, fire-floats, dredgers, floating cranes, other vessels; the navigability of which is subsidiary to main function; floating docks, floating, submersible drilling, production platforms</t>
   </si>
   <si>
+    <t>BWA</t>
+  </si>
+  <si>
+    <t>Botswana</t>
+  </si>
+  <si>
+    <t>Copper ores and concentrates</t>
+  </si>
+  <si>
+    <t>Insulated wire, cable and other electric conductors, connector fitted or not; optical fibre cables of individually sheathed fibres, whether or not assembled with electric conductors or fitted with connectors</t>
+  </si>
+  <si>
+    <t>Carbonates; peroxocarbonates (percarbonates); commercial ammonium carbonate containing ammonium carbamate</t>
+  </si>
+  <si>
+    <t>Bovine animals; live</t>
+  </si>
+  <si>
+    <t>SWZ</t>
+  </si>
+  <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
+    <t>Odoriferous substances and mixtures (including alcoholic solutions) with a basis of one or more of these substances, of a kind used as raw materials in industry; other preparations based on odoriferous substances, of a kind used for beverage manufacture</t>
+  </si>
+  <si>
+    <t>Cane or beet sugar and chemically pure sucrose, in solid form</t>
+  </si>
+  <si>
+    <t>Prepared binders for foundry moulds or cores; chemical products and preparations and residual products of the chemical or allied industries, n.e.s. or included</t>
+  </si>
+  <si>
+    <t>Heterocyclic compounds with nitrogen hetero-atom(s) only</t>
+  </si>
+  <si>
+    <t>Suits, ensembles, jackets, blazers, trousers, bib and brace overalls, breeches and shorts (other than swimwear); men's or boys' (not knitted or crocheted)</t>
+  </si>
+  <si>
+    <t>LSO</t>
+  </si>
+  <si>
+    <t>Lesotho</t>
+  </si>
+  <si>
+    <t>Wool, not carded or combed</t>
+  </si>
+  <si>
+    <t>Suits, ensembles, jackets, dresses, skirts, divided skirts, trousers, bib and brace overalls, breeches and shorts (not swimwear), women's or girls', knitted or crocheted</t>
+  </si>
+  <si>
+    <t>T-shirts, singlets and other vests; knitted or crocheted</t>
+  </si>
+  <si>
+    <t>MWI</t>
+  </si>
+  <si>
+    <t>Malawi</t>
+  </si>
+  <si>
+    <t>Tobacco, unmanufactured; tobacco refuse</t>
+  </si>
+  <si>
+    <t>Tea</t>
+  </si>
+  <si>
+    <t>Vegetables, dried leguminous; shelled, whether or not skinned or split</t>
+  </si>
+  <si>
+    <t>Oil-cake and other solid residues; whether or not ground or in the form of pellets, resulting from the extraction of soya-bean oil</t>
+  </si>
+  <si>
+    <t>MOZ</t>
+  </si>
+  <si>
+    <t>Mozambique</t>
+  </si>
+  <si>
+    <t>Coal; briquettes, ovoids and similar solid fuels manufactured from coal</t>
+  </si>
+  <si>
+    <t>Aluminium; unwrought</t>
+  </si>
+  <si>
+    <t>Titanium ores and concentrates</t>
+  </si>
+  <si>
+    <t>Gold (including gold plated with platinum) unwrought or in semi-manufactured forms, or in powder form</t>
+  </si>
+  <si>
+    <t>NAM</t>
+  </si>
+  <si>
+    <t>Namibia</t>
+  </si>
+  <si>
+    <t>Radioactive chemical elements and radioactive isotopes (including the fissile or fertile chemical elements and isotopes); and their compounds; mixtures and residues containing these products</t>
+  </si>
+  <si>
+    <t>Fish; frozen (excluding fish fillets and other fish meat of heading no. 0304)</t>
+  </si>
+  <si>
+    <t>Fish fillets and other fish meat (whether or not minced); fresh, chilled or frozen</t>
+  </si>
+  <si>
+    <t>ZAF</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>Platinum; unwrought or in semi-manufactured forms, or in powder form</t>
+  </si>
+  <si>
+    <t>Motor cars and other motor vehicles; principally designed for the transport of persons (other than those of heading no. 8702), including station wagons and racing cars</t>
+  </si>
+  <si>
+    <t>Iron ores and concentrates; including roasted iron pyrites</t>
+  </si>
+  <si>
+    <t>ZMB</t>
+  </si>
+  <si>
+    <t>Zambia</t>
+  </si>
+  <si>
+    <t>Copper; unrefined, copper anodes for electrolytic refining</t>
+  </si>
+  <si>
+    <t>Copper; refined and copper alloys, unwrought</t>
+  </si>
+  <si>
+    <t>Precious (excluding diamond) and semi-precious stone; worked, graded, not strung, mounted, set; ungraded precious (excluding diamond) and semi-precious stone, temporarily strung for convenience of transport</t>
+  </si>
+  <si>
+    <t>Electrical energy</t>
+  </si>
+  <si>
+    <t>ZWE</t>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>Nickel mattes; nickel oxide sinters and other intermediate products of nickel metallurgy</t>
+  </si>
+  <si>
+    <t>Mineral substances not elsewhere specified or included</t>
+  </si>
+  <si>
+    <t>Southern Africa</t>
+  </si>
+  <si>
+    <t>BDI</t>
+  </si>
+  <si>
+    <t>Burundi</t>
+  </si>
+  <si>
+    <t>Coffee, whether or not roasted or decaffeinated; husks and skins; coffee substitutes containing coffee in any proportion</t>
+  </si>
+  <si>
+    <t>Tin ores and concentrates</t>
+  </si>
+  <si>
+    <t>Iron or non-alloy steel; bars and rods, not further worked than forged, hot-rolled, hot drawn or hot-extruded, but including those twisted after rolling</t>
+  </si>
+  <si>
+    <t>CMR</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>Cocoa beans; whole or broken, raw or roasted</t>
+  </si>
+  <si>
+    <t>Wood sawn or chipped lengthwise, sliced, peeled, whether or not planed, sanded or finger jointed, of a thickness exceeding 6mm</t>
+  </si>
+  <si>
+    <t>CAF</t>
+  </si>
+  <si>
+    <t>Central African Republic</t>
+  </si>
+  <si>
+    <t>Wood in the rough, whether or not stripped of bark or sapwood, or roughly squared</t>
+  </si>
+  <si>
+    <t>Motor vehicles; parts and accessories, of heading no. 8701 to 8705</t>
+  </si>
+  <si>
+    <t>TCD</t>
+  </si>
+  <si>
+    <t>Chad*</t>
+  </si>
+  <si>
+    <t>Oil seeds and oleaginous fruits, others n.e.s. in chapter 12; whether or not broken</t>
+  </si>
+  <si>
+    <t>Lac; natural gums, resins, gum-resins and oleoresins (for example, balsams)</t>
+  </si>
+  <si>
+    <t>Cotton; not carded or combed</t>
+  </si>
+  <si>
+    <t>COG</t>
+  </si>
+  <si>
+    <t>Congo Republic*</t>
+  </si>
+  <si>
+    <t>COD</t>
+  </si>
+  <si>
+    <t>DR Congo</t>
+  </si>
+  <si>
+    <t>Cobalt; mattes and other intermediate products of cobalt metallurgy, cobalt and articles thereof, including waste and scrap</t>
+  </si>
+  <si>
+    <t>GNQ</t>
+  </si>
+  <si>
+    <t>Equatorial Guinea*</t>
+  </si>
+  <si>
+    <t>Acyclic alcohols and their halogenated, sulphonated, nitrated or nitrosated derivatives</t>
+  </si>
+  <si>
+    <t>Ferrous waste and scrap; remelting scrap ingots of iron or steel</t>
+  </si>
+  <si>
+    <t>GAB</t>
+  </si>
+  <si>
+    <t>Gabon*</t>
+  </si>
+  <si>
+    <t>Manganese ores and concentrates, including ferruginous manganese ores and concentrates with a manganese content of 20% or more, calculated on the dry weight</t>
+  </si>
+  <si>
+    <t>Petroleum oils, oils from bituminous minerals, not crude; preparations n.e.s. containing less than 70% petroleum oils, oils from bituminous minerals; these being the basic constituents of the preparations</t>
+  </si>
+  <si>
+    <t>STP</t>
+  </si>
+  <si>
+    <t>São Tomé and Príncipe</t>
+  </si>
+  <si>
+    <t>Palm oil and its fractions; whether or not refined, but not chemically modified</t>
+  </si>
+  <si>
+    <t>Aircraft; parts of heading no. 8801 or 8802</t>
+  </si>
+  <si>
+    <t>Central Africa</t>
+  </si>
+  <si>
+    <t>COM</t>
+  </si>
+  <si>
+    <t>Comoros</t>
+  </si>
+  <si>
+    <t>Cloves; (whole fruit, cloves and stems)</t>
+  </si>
+  <si>
+    <t>Vessels and other floating structures; for breaking up</t>
+  </si>
+  <si>
+    <t>Oils; essential (concretes, absolutes); concentrates thereof in fats, fixed oils, waxes or the like (obtained by enfleurage or maceration); aqueous distillates, solutions and terpenic by-products thereof; resinoids; extracted oleoresins</t>
+  </si>
+  <si>
+    <t>Vanilla</t>
+  </si>
+  <si>
+    <t>Tugs and pusher craft</t>
+  </si>
+  <si>
+    <t>DJI</t>
+  </si>
+  <si>
+    <t>Djibouti</t>
+  </si>
+  <si>
+    <t>Sun-flower seed, safflower or cotton-seed oil and their fractions; whether or not refined, but not chemically modified</t>
+  </si>
+  <si>
+    <t>Rice</t>
+  </si>
+  <si>
+    <t>ERI</t>
+  </si>
+  <si>
+    <t>Eritrea</t>
+  </si>
+  <si>
+    <t>Zinc ores and concentrates</t>
+  </si>
+  <si>
+    <t>Suits, ensembles, jackets, dresses, skirts, divided skirts, trousers, bib and brace overalls, breeches and shorts (other than swimwear); women's or girls' (not knitted or crocheted)</t>
+  </si>
+  <si>
+    <t>Shirts; men's or boys' (not knitted or crocheted)</t>
+  </si>
+  <si>
+    <t>ETH</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
+    <t>Flowers; cut flowers and flower buds of a kind suitable for bouquets or for ornamental purposes, fresh, dried, dyed, bleached, impregnated or otherwise prepared</t>
+  </si>
+  <si>
+    <t>KEN</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>Dates, figs, pineapples, avocados, guavas, mangoes and mangosteens; fresh or dried</t>
+  </si>
+  <si>
+    <t>MDG</t>
+  </si>
+  <si>
+    <t>Madagascar</t>
+  </si>
+  <si>
+    <t>Nickel; unwrought</t>
+  </si>
+  <si>
+    <t>MUS</t>
+  </si>
+  <si>
+    <t>Mauritius</t>
+  </si>
+  <si>
+    <t>Prepared or preserved fish; caviar and caviar substitutes prepared from fish eggs</t>
+  </si>
+  <si>
+    <t>Fertilizers; mineral or chemical, nitrogenous</t>
+  </si>
+  <si>
+    <t>RWA</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>Niobium, tantalum, vanadium or zirconium ores and concentrates</t>
+  </si>
+  <si>
+    <t>SYC</t>
+  </si>
+  <si>
+    <t>Seychelles</t>
+  </si>
+  <si>
+    <t>Fish; fresh or chilled (excluding fish fillets and other fish meat of heading no. 0304)</t>
+  </si>
+  <si>
+    <t>Flours, meal and pellets, of meat or meat offal, of fish or of crustaceans, molluscs or other aquatic invertebrates, unfit for human consumption; greaves</t>
+  </si>
+  <si>
+    <t>SOM</t>
+  </si>
+  <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>Sheep and goats; live</t>
+  </si>
+  <si>
+    <t>Unused postage, revenue or similar stamps of current or new issue in the country to which destined; stamp-impressed paper; cheque forms; banknotes, stock, share or bond certificates and the like</t>
+  </si>
+  <si>
+    <t>Animals, n.e.s. in chapter 01; live</t>
+  </si>
+  <si>
+    <t>SSD</t>
+  </si>
+  <si>
+    <t>South Sudan*</t>
+  </si>
+  <si>
+    <t>Swedes, mangolds, fodder roots, hay, lucerne (alfalfa), clover, sainfoin, forage kale, lupines, vetches and similar forage products, whether or not in the form of pellets</t>
+  </si>
+  <si>
+    <t>SDN</t>
+  </si>
+  <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>Ground-nuts; not roasted or otherwise cooked, whether or not shelled or broken</t>
+  </si>
+  <si>
+    <t>TZA</t>
+  </si>
+  <si>
+    <t>Tanzania</t>
+  </si>
+  <si>
+    <t>UGA</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>Fish; dried, salted or in brine, smoked fish, whether or not cooked before or during the smoking process, fish meal fit for human consumption</t>
+  </si>
+  <si>
+    <t>East Africa</t>
+  </si>
+  <si>
+    <t>DZA</t>
+  </si>
+  <si>
+    <t>Algeria*</t>
+  </si>
+  <si>
+    <t>Portland cement, aluminous cement ("ciment fondu"), slag cement, supersulphate cement and similar hydraulic cements, whether or not coloured or in the form of clinkers</t>
+  </si>
+  <si>
+    <t>EGY</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>LBY</t>
+  </si>
+  <si>
+    <t>Libya*</t>
+  </si>
+  <si>
+    <t>MRT</t>
+  </si>
+  <si>
+    <t>Mauritania*</t>
+  </si>
+  <si>
+    <t>Crustaceans, molluscs and other aquatic invertebrates, prepared or preserved</t>
+  </si>
+  <si>
+    <t>MAR</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Fertilizers; mineral or chemical, containing 2 or 3 of the elements nitrogen, phosphorus, potassium; other fertilisers; goods of chapter 31 in tablets or packages of gross weight not exceeding 10kg</t>
+  </si>
+  <si>
+    <t>Tomatoes; fresh or chilled</t>
+  </si>
+  <si>
+    <t>TUN</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>Olive oil and its fractions; whether or not refined, but not chemically modified</t>
+  </si>
+  <si>
+    <t>North Africa</t>
+  </si>
+  <si>
+    <t>BEN</t>
+  </si>
+  <si>
+    <t>Benin</t>
+  </si>
+  <si>
+    <t>Nuts, edible; coconuts, Brazil nuts and cashew nuts, fresh or dried, whether or not shelled or peeled</t>
+  </si>
+  <si>
+    <t>Soya beans; whether or not broken</t>
+  </si>
+  <si>
+    <t>BFA</t>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
+  </si>
+  <si>
+    <t>CPV</t>
+  </si>
+  <si>
+    <t>Cabo Verde*</t>
+  </si>
+  <si>
+    <t>Containers; (including containers for transport of fluids) specially designed and equipped for carriage by one or more modes of transport</t>
+  </si>
+  <si>
+    <t>Molluscs, whether in shell or not, live, fresh, chilled, frozen, dried, salted in brine; aquatic invertebrates (not crustaceans and molluscs) live, fresh, chilled, frozen, dried, salted or in brine</t>
+  </si>
+  <si>
+    <t>CIV</t>
+  </si>
+  <si>
+    <t>Côte d’Ivoire</t>
+  </si>
+  <si>
+    <t>Natural rubber, balata, gutta-percha, guayule, chicle and similar gums; in primary forms or in plates, sheets or strip</t>
+  </si>
+  <si>
+    <t>GMB</t>
+  </si>
+  <si>
+    <t>Gambia</t>
+  </si>
+  <si>
+    <t>Medicaments; (not goods of heading no. 3002, 3005 or 3006) consisting of mixed or unmixed products for therapeutic or prophylactic use, put up in measured doses or in forms or packings for retail sale</t>
+  </si>
+  <si>
+    <t>Harvesting and threshing machinery, straw and fodder balers, grass or hay mowers; machines for cleaning, sorting or grading eggs, fruit or other agricultural produce, other than machinery of heading no 8437</t>
+  </si>
+  <si>
+    <t>Trailers and semi-trailers; other vehicles, not mechanically propelled; parts thereof</t>
+  </si>
+  <si>
+    <t>GHA</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>Cocoa; paste; whether or not defatted</t>
+  </si>
+  <si>
+    <t>GIN</t>
+  </si>
+  <si>
+    <t>Guinea</t>
+  </si>
+  <si>
+    <t>Aluminium ores and concentrates</t>
+  </si>
+  <si>
+    <t>GNB</t>
+  </si>
+  <si>
+    <t>Guinea-Bissau</t>
+  </si>
+  <si>
+    <t>Fats and oils and their fractions of fish or marine mammals; whether or not refined, but not chemically modified</t>
+  </si>
+  <si>
+    <t>Malt extract; flour, meal, starch or malt extract products, no cocoa powder or less than 50% cocoa powder by weight, n.e.s; products of goods of heading no. 0401-0404 containing less than 10% cocoa</t>
+  </si>
+  <si>
+    <t>LBR</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>MLI</t>
+  </si>
+  <si>
+    <t>Mali</t>
+  </si>
+  <si>
+    <t>NER</t>
+  </si>
+  <si>
+    <t>Niger</t>
+  </si>
+  <si>
+    <t>Uranium or thorium ores and concentrates</t>
+  </si>
+  <si>
+    <t>NGA</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>SEN</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>Diphosphorus pentoxide; phosphoric acid and polyphosphoric acids</t>
+  </si>
+  <si>
+    <t>SLE</t>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+  </si>
+  <si>
+    <t>TGO</t>
+  </si>
+  <si>
+    <t>Togo</t>
+  </si>
+  <si>
+    <t>Natural calcium phosphates; natural aluminium calcium phosphates and phosphatic chalk</t>
+  </si>
+  <si>
+    <t>West Africa</t>
+  </si>
+  <si>
+    <t>Africa</t>
+  </si>
+  <si>
+    <t>World outside Africa</t>
+  </si>
+  <si>
+    <t>Electronic integrated circuits and microassemblies</t>
+  </si>
+  <si>
+    <t>Transmission apparatus for radio-telephony, radio-telegraphy, radio-broadcasting or television, whether or not incorporating reception, sound recording or reproducing apparatus; television cameras; still image video cameras, other video camera recorders</t>
+  </si>
+  <si>
+    <t>Latin America and Caribbean</t>
+  </si>
+  <si>
+    <t>Asia (no high inc.)</t>
+  </si>
+  <si>
+    <t>Automatic data processing machines and units thereof; magnetic or optical readers, machines for transcribing data onto data media in coded form and machines for processing such data n.e.s.</t>
+  </si>
+  <si>
+    <t>World</t>
+  </si>
+  <si>
+    <t>COMESA</t>
+  </si>
+  <si>
+    <t>CEN-SAD</t>
+  </si>
+  <si>
+    <t>EAC</t>
+  </si>
+  <si>
+    <t>ECCAS</t>
+  </si>
+  <si>
+    <t>ECOWAS</t>
+  </si>
+  <si>
+    <t>IGAD</t>
+  </si>
+  <si>
+    <t>SADC</t>
+  </si>
+  <si>
+    <t>UMA</t>
+  </si>
+  <si>
+    <t>PALOP</t>
+  </si>
+  <si>
+    <t>ASEAN</t>
+  </si>
+  <si>
+    <t>Diodes, transistors, similar semiconductor devices; including photovoltaic cells assembled or not in modules, panels, light emitting mounted piezo-electric crystals</t>
+  </si>
+  <si>
+    <t>MERCOSUR</t>
+  </si>
+  <si>
+    <t>EU27</t>
+  </si>
+  <si>
+    <t>Blood, human or animal; for therapeutic, prophylactic or diagnostic uses; antisera, other blood fractions, modified immunological products, (from biotechnological processes or not); vaccines, toxins, micro-organism cultures (not yeasts), similar products</t>
+  </si>
+  <si>
+    <t>OECD</t>
+  </si>
+  <si>
+    <t>Africa, Resource-rich countries</t>
+  </si>
+  <si>
+    <t>ROW, Resource-rich countries</t>
+  </si>
+  <si>
+    <t>Africa, Non-resource-rich countries</t>
+  </si>
+  <si>
+    <t>ROW, Non-resource-rich countries</t>
+  </si>
+  <si>
+    <t>Africa, Low income countries</t>
+  </si>
+  <si>
+    <t>ROW, Low income countries</t>
+  </si>
+  <si>
+    <t>Nuts (excluding coconuts, Brazils and cashew nuts); fresh or dried, whether or not shelled or peeled</t>
+  </si>
+  <si>
+    <t>Africa, Lower middle income countries</t>
+  </si>
+  <si>
+    <t>ROW, Lower middle income countries</t>
+  </si>
+  <si>
+    <t>Africa, Upper middle income countries</t>
+  </si>
+  <si>
+    <t>ROW, Upper middle income countries</t>
+  </si>
+  <si>
+    <t>High income countries</t>
+  </si>
+  <si>
+    <t>Africa, Least Developed Countries</t>
+  </si>
+  <si>
+    <t>ROW, Least Developed Countries</t>
+  </si>
+  <si>
+    <t>Jerseys, pullovers, cardigans, waistcoats and similar articles; knitted or crocheted</t>
+  </si>
+  <si>
+    <t>Africa, Small Island Developing States</t>
+  </si>
+  <si>
+    <t>ROW, Small Island Developing States</t>
+  </si>
+  <si>
+    <t>Machinery and mechanical appliances; having individual functions, n.e.s. in this chapter</t>
+  </si>
+  <si>
+    <t>Africa, Landlocked Developing Countries</t>
+  </si>
+  <si>
+    <t>ROW, Landlocked Developing Countries</t>
+  </si>
+  <si>
+    <t>Africa, High and extreme fragility</t>
+  </si>
+  <si>
     <t>..</t>
   </si>
   <si>
-    <t>BWA</t>
-  </si>
-  <si>
-    <t>Botswana</t>
-  </si>
-  <si>
-    <t>Copper ores and concentrates</t>
-  </si>
-  <si>
-    <t>Insulated wire, cable and other electric conductors, connector fitted or not; optical fibre cables of individually sheathed fibres, whether or not assembled with electric conductors or fitted with connectors</t>
-  </si>
-  <si>
-    <t>Carbonates; peroxocarbonates (percarbonates); commercial ammonium carbonate containing ammonium carbamate</t>
-  </si>
-  <si>
-    <t>Bovine animals; live</t>
-  </si>
-  <si>
-    <t>SWZ</t>
-  </si>
-  <si>
-    <t>Eswatini</t>
-  </si>
-  <si>
-    <t>Odoriferous substances and mixtures (including alcoholic solutions) with a basis of one or more of these substances, of a kind used as raw materials in industry; other preparations based on odoriferous substances, of a kind used for beverage manufacture</t>
-  </si>
-  <si>
-    <t>Cane or beet sugar and chemically pure sucrose, in solid form</t>
-  </si>
-  <si>
-    <t>Prepared binders for foundry moulds or cores; chemical products and preparations and residual products of the chemical or allied industries, n.e.s. or included</t>
-  </si>
-  <si>
-    <t>Heterocyclic compounds with nitrogen hetero-atom(s) only</t>
-  </si>
-  <si>
-    <t>Suits, ensembles, jackets, blazers, trousers, bib and brace overalls, breeches and shorts (other than swimwear); men's or boys' (not knitted or crocheted)</t>
-  </si>
-  <si>
-    <t>LSO</t>
-  </si>
-  <si>
-    <t>Lesotho</t>
-  </si>
-  <si>
-    <t>Wool, not carded or combed</t>
-  </si>
-  <si>
-    <t>Suits, ensembles, jackets, dresses, skirts, divided skirts, trousers, bib and brace overalls, breeches and shorts (not swimwear), women's or girls', knitted or crocheted</t>
-  </si>
-  <si>
-    <t>T-shirts, singlets and other vests; knitted or crocheted</t>
-  </si>
-  <si>
-    <t>MWI</t>
-  </si>
-  <si>
-    <t>Malawi</t>
-  </si>
-  <si>
-    <t>Tobacco, unmanufactured; tobacco refuse</t>
-  </si>
-  <si>
-    <t>Tea</t>
-  </si>
-  <si>
-    <t>Vegetables, dried leguminous; shelled, whether or not skinned or split</t>
-  </si>
-  <si>
-    <t>Oil-cake and other solid residues; whether or not ground or in the form of pellets, resulting from the extraction of soya-bean oil</t>
-  </si>
-  <si>
-    <t>MOZ</t>
-  </si>
-  <si>
-    <t>Mozambique</t>
-  </si>
-  <si>
-    <t>Coal; briquettes, ovoids and similar solid fuels manufactured from coal</t>
-  </si>
-  <si>
-    <t>Aluminium; unwrought</t>
-  </si>
-  <si>
-    <t>Titanium ores and concentrates</t>
-  </si>
-  <si>
-    <t>Gold (including gold plated with platinum) unwrought or in semi-manufactured forms, or in powder form</t>
-  </si>
-  <si>
-    <t>NAM</t>
-  </si>
-  <si>
-    <t>Namibia</t>
-  </si>
-  <si>
-    <t>Radioactive chemical elements and radioactive isotopes (including the fissile or fertile chemical elements and isotopes); and their compounds; mixtures and residues containing these products</t>
-  </si>
-  <si>
-    <t>Fish; frozen (excluding fish fillets and other fish meat of heading no. 0304)</t>
-  </si>
-  <si>
-    <t>Fish fillets and other fish meat (whether or not minced); fresh, chilled or frozen</t>
-  </si>
-  <si>
-    <t>ZAF</t>
-  </si>
-  <si>
-    <t>South Africa</t>
-  </si>
-  <si>
-    <t>Platinum; unwrought or in semi-manufactured forms, or in powder form</t>
-  </si>
-  <si>
-    <t>Motor cars and other motor vehicles; principally designed for the transport of persons (other than those of heading no. 8702), including station wagons and racing cars</t>
-  </si>
-  <si>
-    <t>Iron ores and concentrates; including roasted iron pyrites</t>
-  </si>
-  <si>
-    <t>ZMB</t>
-  </si>
-  <si>
-    <t>Zambia</t>
-  </si>
-  <si>
-    <t>Copper; unrefined, copper anodes for electrolytic refining</t>
-  </si>
-  <si>
-    <t>Copper; refined and copper alloys, unwrought</t>
-  </si>
-  <si>
-    <t>Precious (excluding diamond) and semi-precious stone; worked, graded, not strung, mounted, set; ungraded precious (excluding diamond) and semi-precious stone, temporarily strung for convenience of transport</t>
-  </si>
-  <si>
-    <t>Electrical energy</t>
-  </si>
-  <si>
-    <t>ZWE</t>
-  </si>
-  <si>
-    <t>Zimbabwe</t>
-  </si>
-  <si>
-    <t>Nickel mattes; nickel oxide sinters and other intermediate products of nickel metallurgy</t>
-  </si>
-  <si>
-    <t>Mineral substances not elsewhere specified or included</t>
-  </si>
-  <si>
-    <t>Southern Africa</t>
-  </si>
-  <si>
-    <t>BDI</t>
-  </si>
-  <si>
-    <t>Burundi</t>
-  </si>
-  <si>
-    <t>Coffee, whether or not roasted or decaffeinated; husks and skins; coffee substitutes containing coffee in any proportion</t>
-  </si>
-  <si>
-    <t>Tin ores and concentrates</t>
-  </si>
-  <si>
-    <t>Iron or non-alloy steel; bars and rods, not further worked than forged, hot-rolled, hot drawn or hot-extruded, but including those twisted after rolling</t>
-  </si>
-  <si>
-    <t>CMR</t>
-  </si>
-  <si>
-    <t>Cameroon</t>
-  </si>
-  <si>
-    <t>Cocoa beans; whole or broken, raw or roasted</t>
-  </si>
-  <si>
-    <t>Wood sawn or chipped lengthwise, sliced, peeled, whether or not planed, sanded or finger jointed, of a thickness exceeding 6mm</t>
-  </si>
-  <si>
-    <t>CAF</t>
-  </si>
-  <si>
-    <t>Central African Republic</t>
-  </si>
-  <si>
-    <t>Wood in the rough, whether or not stripped of bark or sapwood, or roughly squared</t>
-  </si>
-  <si>
-    <t>Motor vehicles; parts and accessories, of heading no. 8701 to 8705</t>
-  </si>
-  <si>
-    <t>TCD</t>
-  </si>
-  <si>
-    <t>Chad*</t>
-  </si>
-  <si>
-    <t>Oil seeds and oleaginous fruits, others n.e.s. in chapter 12; whether or not broken</t>
-  </si>
-  <si>
-    <t>Lac; natural gums, resins, gum-resins and oleoresins (for example, balsams)</t>
-  </si>
-  <si>
-    <t>Cotton; not carded or combed</t>
-  </si>
-  <si>
-    <t>COG</t>
-  </si>
-  <si>
-    <t>Congo Republic*</t>
-  </si>
-  <si>
-    <t>COD</t>
-  </si>
-  <si>
-    <t>DR Congo</t>
-  </si>
-  <si>
-    <t>Cobalt; mattes and other intermediate products of cobalt metallurgy, cobalt and articles thereof, including waste and scrap</t>
-  </si>
-  <si>
-    <t>GNQ</t>
-  </si>
-  <si>
-    <t>Equatorial Guinea*</t>
-  </si>
-  <si>
-    <t>Acyclic alcohols and their halogenated, sulphonated, nitrated or nitrosated derivatives</t>
-  </si>
-  <si>
-    <t>Ferrous waste and scrap; remelting scrap ingots of iron or steel</t>
-  </si>
-  <si>
-    <t>GAB</t>
-  </si>
-  <si>
-    <t>Gabon*</t>
-  </si>
-  <si>
-    <t>Manganese ores and concentrates, including ferruginous manganese ores and concentrates with a manganese content of 20% or more, calculated on the dry weight</t>
-  </si>
-  <si>
-    <t>Petroleum oils, oils from bituminous minerals, not crude; preparations n.e.s. containing less than 70% petroleum oils, oils from bituminous minerals; these being the basic constituents of the preparations</t>
-  </si>
-  <si>
-    <t>STP</t>
-  </si>
-  <si>
-    <t>São Tomé and Príncipe</t>
-  </si>
-  <si>
-    <t>Palm oil and its fractions; whether or not refined, but not chemically modified</t>
-  </si>
-  <si>
-    <t>Aircraft; parts of heading no. 8801 or 8802</t>
-  </si>
-  <si>
-    <t>Central Africa</t>
-  </si>
-  <si>
-    <t>COM</t>
-  </si>
-  <si>
-    <t>Comoros</t>
-  </si>
-  <si>
-    <t>Cloves; (whole fruit, cloves and stems)</t>
-  </si>
-  <si>
-    <t>Vessels and other floating structures; for breaking up</t>
-  </si>
-  <si>
-    <t>Oils; essential (concretes, absolutes); concentrates thereof in fats, fixed oils, waxes or the like (obtained by enfleurage or maceration); aqueous distillates, solutions and terpenic by-products thereof; resinoids; extracted oleoresins</t>
-  </si>
-  <si>
-    <t>Vanilla</t>
-  </si>
-  <si>
-    <t>Tugs and pusher craft</t>
-  </si>
-  <si>
-    <t>DJI</t>
-  </si>
-  <si>
-    <t>Djibouti</t>
-  </si>
-  <si>
-    <t>Sun-flower seed, safflower or cotton-seed oil and their fractions; whether or not refined, but not chemically modified</t>
-  </si>
-  <si>
-    <t>Rice</t>
-  </si>
-  <si>
-    <t>ERI</t>
-  </si>
-  <si>
-    <t>Eritrea</t>
-  </si>
-  <si>
-    <t>Zinc ores and concentrates</t>
-  </si>
-  <si>
-    <t>Suits, ensembles, jackets, dresses, skirts, divided skirts, trousers, bib and brace overalls, breeches and shorts (other than swimwear); women's or girls' (not knitted or crocheted)</t>
-  </si>
-  <si>
-    <t>Shirts; men's or boys' (not knitted or crocheted)</t>
-  </si>
-  <si>
-    <t>ETH</t>
-  </si>
-  <si>
-    <t>Ethiopia</t>
-  </si>
-  <si>
-    <t>Flowers; cut flowers and flower buds of a kind suitable for bouquets or for ornamental purposes, fresh, dried, dyed, bleached, impregnated or otherwise prepared</t>
-  </si>
-  <si>
-    <t>KEN</t>
-  </si>
-  <si>
-    <t>Kenya</t>
-  </si>
-  <si>
-    <t>Dates, figs, pineapples, avocados, guavas, mangoes and mangosteens; fresh or dried</t>
-  </si>
-  <si>
-    <t>MDG</t>
-  </si>
-  <si>
-    <t>Madagascar</t>
-  </si>
-  <si>
-    <t>Nickel; unwrought</t>
-  </si>
-  <si>
-    <t>MUS</t>
-  </si>
-  <si>
-    <t>Mauritius</t>
-  </si>
-  <si>
-    <t>Prepared or preserved fish; caviar and caviar substitutes prepared from fish eggs</t>
-  </si>
-  <si>
-    <t>Fertilizers; mineral or chemical, nitrogenous</t>
-  </si>
-  <si>
-    <t>RWA</t>
-  </si>
-  <si>
-    <t>Rwanda</t>
-  </si>
-  <si>
-    <t>Niobium, tantalum, vanadium or zirconium ores and concentrates</t>
-  </si>
-  <si>
-    <t>SYC</t>
-  </si>
-  <si>
-    <t>Seychelles</t>
-  </si>
-  <si>
-    <t>Fish; fresh or chilled (excluding fish fillets and other fish meat of heading no. 0304)</t>
-  </si>
-  <si>
-    <t>Flours, meal and pellets, of meat or meat offal, of fish or of crustaceans, molluscs or other aquatic invertebrates, unfit for human consumption; greaves</t>
-  </si>
-  <si>
-    <t>SOM</t>
-  </si>
-  <si>
-    <t>Somalia</t>
-  </si>
-  <si>
-    <t>Sheep and goats; live</t>
-  </si>
-  <si>
-    <t>Unused postage, revenue or similar stamps of current or new issue in the country to which destined; stamp-impressed paper; cheque forms; banknotes, stock, share or bond certificates and the like</t>
-  </si>
-  <si>
-    <t>Animals, n.e.s. in chapter 01; live</t>
-  </si>
-  <si>
-    <t>SSD</t>
-  </si>
-  <si>
-    <t>South Sudan*</t>
-  </si>
-  <si>
-    <t>Swedes, mangolds, fodder roots, hay, lucerne (alfalfa), clover, sainfoin, forage kale, lupines, vetches and similar forage products, whether or not in the form of pellets</t>
-  </si>
-  <si>
-    <t>SDN</t>
-  </si>
-  <si>
-    <t>Sudan</t>
-  </si>
-  <si>
-    <t>Ground-nuts; not roasted or otherwise cooked, whether or not shelled or broken</t>
-  </si>
-  <si>
-    <t>TZA</t>
-  </si>
-  <si>
-    <t>Tanzania</t>
-  </si>
-  <si>
-    <t>UGA</t>
-  </si>
-  <si>
-    <t>Uganda</t>
-  </si>
-  <si>
-    <t>Fish; dried, salted or in brine, smoked fish, whether or not cooked before or during the smoking process, fish meal fit for human consumption</t>
-  </si>
-  <si>
-    <t>East Africa</t>
-  </si>
-  <si>
-    <t>DZA</t>
-  </si>
-  <si>
-    <t>Algeria*</t>
-  </si>
-  <si>
-    <t>Portland cement, aluminous cement ("ciment fondu"), slag cement, supersulphate cement and similar hydraulic cements, whether or not coloured or in the form of clinkers</t>
-  </si>
-  <si>
-    <t>EGY</t>
-  </si>
-  <si>
-    <t>Egypt</t>
-  </si>
-  <si>
-    <t>LBY</t>
-  </si>
-  <si>
-    <t>Libya*</t>
-  </si>
-  <si>
-    <t>MRT</t>
-  </si>
-  <si>
-    <t>Mauritania*</t>
-  </si>
-  <si>
-    <t>Crustaceans, molluscs and other aquatic invertebrates, prepared or preserved</t>
-  </si>
-  <si>
-    <t>MAR</t>
-  </si>
-  <si>
-    <t>Morocco</t>
-  </si>
-  <si>
-    <t>Fertilizers; mineral or chemical, containing 2 or 3 of the elements nitrogen, phosphorus, potassium; other fertilisers; goods of chapter 31 in tablets or packages of gross weight not exceeding 10kg</t>
-  </si>
-  <si>
-    <t>Tomatoes; fresh or chilled</t>
-  </si>
-  <si>
-    <t>TUN</t>
-  </si>
-  <si>
-    <t>Tunisia</t>
-  </si>
-  <si>
-    <t>Olive oil and its fractions; whether or not refined, but not chemically modified</t>
-  </si>
-  <si>
-    <t>North Africa</t>
-  </si>
-  <si>
-    <t>BEN</t>
-  </si>
-  <si>
-    <t>Benin</t>
-  </si>
-  <si>
-    <t>Nuts, edible; coconuts, Brazil nuts and cashew nuts, fresh or dried, whether or not shelled or peeled</t>
-  </si>
-  <si>
-    <t>Soya beans; whether or not broken</t>
-  </si>
-  <si>
-    <t>BFA</t>
-  </si>
-  <si>
-    <t>Burkina Faso</t>
-  </si>
-  <si>
-    <t>CPV</t>
-  </si>
-  <si>
-    <t>Cabo Verde*</t>
-  </si>
-  <si>
-    <t>Containers; (including containers for transport of fluids) specially designed and equipped for carriage by one or more modes of transport</t>
-  </si>
-  <si>
-    <t>Molluscs, whether in shell or not, live, fresh, chilled, frozen, dried, salted in brine; aquatic invertebrates (not crustaceans and molluscs) live, fresh, chilled, frozen, dried, salted or in brine</t>
-  </si>
-  <si>
-    <t>CIV</t>
-  </si>
-  <si>
-    <t>Côte d’Ivoire</t>
-  </si>
-  <si>
-    <t>Natural rubber, balata, gutta-percha, guayule, chicle and similar gums; in primary forms or in plates, sheets or strip</t>
-  </si>
-  <si>
-    <t>GMB</t>
-  </si>
-  <si>
-    <t>Gambia</t>
-  </si>
-  <si>
-    <t>Medicaments; (not goods of heading no. 3002, 3005 or 3006) consisting of mixed or unmixed products for therapeutic or prophylactic use, put up in measured doses or in forms or packings for retail sale</t>
-  </si>
-  <si>
-    <t>Harvesting and threshing machinery, straw and fodder balers, grass or hay mowers; machines for cleaning, sorting or grading eggs, fruit or other agricultural produce, other than machinery of heading no 8437</t>
-  </si>
-  <si>
-    <t>Trailers and semi-trailers; other vehicles, not mechanically propelled; parts thereof</t>
-  </si>
-  <si>
-    <t>GHA</t>
-  </si>
-  <si>
-    <t>Ghana</t>
-  </si>
-  <si>
-    <t>Cocoa; paste; whether or not defatted</t>
-  </si>
-  <si>
-    <t>GIN</t>
-  </si>
-  <si>
-    <t>Guinea</t>
-  </si>
-  <si>
-    <t>Aluminium ores and concentrates</t>
-  </si>
-  <si>
-    <t>GNB</t>
-  </si>
-  <si>
-    <t>Guinea-Bissau</t>
-  </si>
-  <si>
-    <t>Fats and oils and their fractions of fish or marine mammals; whether or not refined, but not chemically modified</t>
-  </si>
-  <si>
-    <t>Malt extract; flour, meal, starch or malt extract products, no cocoa powder or less than 50% cocoa powder by weight, n.e.s; products of goods of heading no. 0401-0404 containing less than 10% cocoa</t>
-  </si>
-  <si>
-    <t>LBR</t>
-  </si>
-  <si>
-    <t>Liberia</t>
-  </si>
-  <si>
-    <t>MLI</t>
-  </si>
-  <si>
-    <t>Mali</t>
-  </si>
-  <si>
-    <t>NER</t>
-  </si>
-  <si>
-    <t>Niger</t>
-  </si>
-  <si>
-    <t>Uranium or thorium ores and concentrates</t>
-  </si>
-  <si>
-    <t>NGA</t>
-  </si>
-  <si>
-    <t>Nigeria</t>
-  </si>
-  <si>
-    <t>SEN</t>
-  </si>
-  <si>
-    <t>Senegal</t>
-  </si>
-  <si>
-    <t>Diphosphorus pentoxide; phosphoric acid and polyphosphoric acids</t>
-  </si>
-  <si>
-    <t>SLE</t>
-  </si>
-  <si>
-    <t>Sierra Leone</t>
-  </si>
-  <si>
-    <t>TGO</t>
-  </si>
-  <si>
-    <t>Togo</t>
-  </si>
-  <si>
-    <t>Natural calcium phosphates; natural aluminium calcium phosphates and phosphatic chalk</t>
-  </si>
-  <si>
-    <t>West Africa</t>
-  </si>
-  <si>
-    <t>Africa</t>
-  </si>
-  <si>
-    <t>World outside Africa</t>
-  </si>
-  <si>
-    <t>Electronic integrated circuits and microassemblies</t>
-  </si>
-  <si>
-    <t>Transmission apparatus for radio-telephony, radio-telegraphy, radio-broadcasting or television, whether or not incorporating reception, sound recording or reproducing apparatus; television cameras; still image video cameras, other video camera recorders</t>
-  </si>
-  <si>
-    <t>Latin America and Caribbean</t>
-  </si>
-  <si>
-    <t>Asia (no high inc.)</t>
-  </si>
-  <si>
-    <t>Automatic data processing machines and units thereof; magnetic or optical readers, machines for transcribing data onto data media in coded form and machines for processing such data n.e.s.</t>
-  </si>
-  <si>
-    <t>World</t>
-  </si>
-  <si>
-    <t>COMESA</t>
-  </si>
-  <si>
-    <t>CEN-SAD</t>
-  </si>
-  <si>
-    <t>EAC</t>
-  </si>
-  <si>
-    <t>ECCAS</t>
-  </si>
-  <si>
-    <t>ECOWAS</t>
-  </si>
-  <si>
-    <t>IGAD</t>
-  </si>
-  <si>
-    <t>SADC</t>
-  </si>
-  <si>
-    <t>UMA</t>
-  </si>
-  <si>
-    <t>PALOP</t>
-  </si>
-  <si>
-    <t>ASEAN</t>
-  </si>
-  <si>
-    <t>Diodes, transistors, similar semiconductor devices; including photovoltaic cells assembled or not in modules, panels, light emitting mounted piezo-electric crystals</t>
-  </si>
-  <si>
-    <t>MERCOSUR</t>
-  </si>
-  <si>
-    <t>EU27</t>
-  </si>
-  <si>
-    <t>Blood, human or animal; for therapeutic, prophylactic or diagnostic uses; antisera, other blood fractions, modified immunological products, (from biotechnological processes or not); vaccines, toxins, micro-organism cultures (not yeasts), similar products</t>
-  </si>
-  <si>
-    <t>OECD</t>
-  </si>
-  <si>
-    <t>Africa, Resource-rich countries</t>
-  </si>
-  <si>
-    <t>ROW, Resource-rich countries</t>
-  </si>
-  <si>
-    <t>Africa, Non-resource-rich countries</t>
-  </si>
-  <si>
-    <t>ROW, Non-resource-rich countries</t>
-  </si>
-  <si>
-    <t>Africa, Low income countries</t>
-  </si>
-  <si>
-    <t>ROW, Low income countries</t>
-  </si>
-  <si>
-    <t>Nuts (excluding coconuts, Brazils and cashew nuts); fresh or dried, whether or not shelled or peeled</t>
-  </si>
-  <si>
-    <t>Africa, Lower middle income countries</t>
-  </si>
-  <si>
-    <t>ROW, Lower middle income countries</t>
-  </si>
-  <si>
-    <t>Africa, Upper middle income countries</t>
-  </si>
-  <si>
-    <t>ROW, Upper middle income countries</t>
-  </si>
-  <si>
-    <t>High income countries</t>
-  </si>
-  <si>
-    <t>Africa, Least Developed Countries</t>
-  </si>
-  <si>
-    <t>ROW, Least Developed Countries</t>
-  </si>
-  <si>
-    <t>Jerseys, pullovers, cardigans, waistcoats and similar articles; knitted or crocheted</t>
-  </si>
-  <si>
-    <t>Africa, Small Island Developing States</t>
-  </si>
-  <si>
-    <t>ROW, Small Island Developing States</t>
-  </si>
-  <si>
-    <t>Machinery and mechanical appliances; having individual functions, n.e.s. in this chapter</t>
-  </si>
-  <si>
-    <t>Africa, Landlocked Developing Countries</t>
-  </si>
-  <si>
-    <t>ROW, Landlocked Developing Countries</t>
-  </si>
-  <si>
-    <t>Africa, High and extreme fragility</t>
-  </si>
-  <si>
     <t>ROW, High and extreme fragility</t>
   </si>
   <si>
@@ -867,7 +864,7 @@
     <t>ROW = "Rest of world"; LAC = "Latin American and Caribbean countries".</t>
   </si>
   <si>
-    <t>Regional Economic Communities: CEN-SAD = "Community of Sahel-Saharan States"; COMESA = "Common Market for Eastern and Southern Africa"; EAC = "East African Community"; ECCAS = "Economic Community of Central African States"; ECOWAS = "Economic Community of West African States"; IGAD = "Intergovernmental Authority on Development"; SADC = "Southern African Development Community"; UMA = "Arab Maghreb Union"; PALOP = "PaÃ­ses Africanos de LÃ­ngua Oficial Portuguesa"; ASEAN = "Association of Southeast Asian Nations"; MERCOSUR = "Mercado ComÃºn del Sur". EU27 = "European Union (27 members)". OECD = "Organisation for Economic Co-operation and Development".</t>
+    <t>Regional Economic Communities: CEN-SAD = "Community of Sahel-Saharan States"; COMESA = "Common Market for Eastern and Southern Africa"; EAC = "East African Community"; ECCAS = "Economic Community of Central African States"; ECOWAS = "Economic Community of West African States"; IGAD = "Intergovernmental Authority on Development"; SADC = "Southern African Development Community"; UMA = "Arab Maghreb Union"; PALOP = "Países Africanos de Língua Oficial Portuguesa"; ASEAN = "Association of Southeast Asian Nations"; MERCOSUR = "Mercado Común del Sur". EU27 = "European Union (27 members)". OECD = "Organisation for Economic Co-operation and Development".</t>
   </si>
   <si>
     <t>Source: Author's calculations based on BACI International Trade Database at the Product-Level from CEPII (updated 30/01/2025).</t>
@@ -2024,31 +2021,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C85364F3-89D5-4D11-8523-628794035529}">
-  <dimension ref="A1:O113"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1CB83A2-6BF9-4BC3-BCD7-77F73C07F616}">
+  <dimension ref="A1:N113"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" style="138" customWidth="1"/>
-    <col min="4" max="4" width="6.28515625" style="139" customWidth="1"/>
-    <col min="5" max="5" width="27.28515625" style="138" customWidth="1"/>
-    <col min="6" max="6" width="6.28515625" style="139" customWidth="1"/>
-    <col min="7" max="7" width="27.28515625" style="138" customWidth="1"/>
-    <col min="8" max="8" width="6.28515625" style="139" customWidth="1"/>
-    <col min="9" max="9" width="27.28515625" style="138" customWidth="1"/>
-    <col min="10" max="10" width="6.28515625" style="139" customWidth="1"/>
-    <col min="11" max="11" width="27.28515625" style="138" customWidth="1"/>
-    <col min="12" max="12" width="6.28515625" style="140" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="141" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="142" customWidth="1"/>
-    <col min="16" max="26" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.26953125" style="138" customWidth="1"/>
+    <col min="4" max="4" width="6.26953125" style="139" customWidth="1"/>
+    <col min="5" max="5" width="27.26953125" style="138" customWidth="1"/>
+    <col min="6" max="6" width="6.26953125" style="139" customWidth="1"/>
+    <col min="7" max="7" width="27.26953125" style="138" customWidth="1"/>
+    <col min="8" max="8" width="6.26953125" style="139" customWidth="1"/>
+    <col min="9" max="9" width="27.26953125" style="138" customWidth="1"/>
+    <col min="10" max="10" width="6.26953125" style="139" customWidth="1"/>
+    <col min="11" max="11" width="27.26953125" style="138" customWidth="1"/>
+    <col min="12" max="12" width="6.26953125" style="140" customWidth="1"/>
+    <col min="13" max="13" width="14.453125" style="141" customWidth="1"/>
+    <col min="14" max="14" width="14.453125" style="142" customWidth="1"/>
+    <col min="15" max="25" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -2063,10 +2060,9 @@
       <c r="K1" s="5"/>
       <c r="L1" s="6"/>
       <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="3"/>
-    </row>
-    <row r="2" spans="1:15" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N1" s="3"/>
+    </row>
+    <row r="2" spans="1:14" ht="32" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
@@ -2106,46 +2102,43 @@
       <c r="M2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="N2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="15" t="s">
+    </row>
+    <row r="3" spans="1:14" ht="52.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" ht="67.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="B3" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="C3" s="18" t="s">
         <v>17</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>18</v>
       </c>
       <c r="D3" s="19">
         <v>74.112311000000005</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F3" s="19">
         <v>11.694343999999999</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H3" s="19">
         <v>6.1527640000000003</v>
       </c>
       <c r="I3" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J3" s="19">
         <v>3.339439</v>
       </c>
       <c r="K3" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L3" s="21">
         <v>0.91975099999999999</v>
@@ -2153,46 +2146,43 @@
       <c r="M3" s="22">
         <v>2</v>
       </c>
-      <c r="N3" s="22">
+      <c r="N3" s="23">
         <v>3</v>
       </c>
-      <c r="O3" s="23" t="s">
+    </row>
+    <row r="4" spans="1:14" ht="52.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="24" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" ht="67.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>25</v>
-      </c>
       <c r="C4" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" s="26">
         <v>80.909972999999994</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F4" s="26">
         <v>8.7177240000000005</v>
       </c>
       <c r="G4" s="27" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H4" s="26">
         <v>2.367022</v>
       </c>
       <c r="I4" s="27" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J4" s="26">
         <v>0.94598199999999999</v>
       </c>
       <c r="K4" s="27" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L4" s="28">
         <v>0.76217999999999997</v>
@@ -2200,46 +2190,43 @@
       <c r="M4" s="29">
         <v>1</v>
       </c>
-      <c r="N4" s="29">
+      <c r="N4" s="30">
         <v>3</v>
       </c>
-      <c r="O4" s="30" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="78.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:14" ht="73.5" x14ac:dyDescent="0.35">
       <c r="A5" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="25" t="s">
         <v>30</v>
-      </c>
-      <c r="B5" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>32</v>
       </c>
       <c r="D5" s="32">
         <v>26.030553000000001</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F5" s="32">
         <v>17.728119</v>
       </c>
       <c r="G5" s="27" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H5" s="32">
         <v>11.458449</v>
       </c>
       <c r="I5" s="27" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J5" s="32">
         <v>3.8952460000000002</v>
       </c>
       <c r="K5" s="27" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L5" s="33">
         <v>3.6122200000000002</v>
@@ -2247,46 +2234,43 @@
       <c r="M5" s="34">
         <v>10</v>
       </c>
-      <c r="N5" s="34">
+      <c r="N5" s="35">
         <v>33</v>
       </c>
-      <c r="O5" s="35" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="56.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:14" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A6" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" s="32">
         <v>46.899253999999999</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F6" s="32">
         <v>6.2491139999999996</v>
       </c>
       <c r="G6" s="27" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H6" s="32">
         <v>5.5232210000000004</v>
       </c>
       <c r="I6" s="27" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J6" s="32">
         <v>5.3458030000000001</v>
       </c>
       <c r="K6" s="27" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L6" s="33">
         <v>3.9876119999999999</v>
@@ -2294,46 +2278,43 @@
       <c r="M6" s="34">
         <v>8</v>
       </c>
-      <c r="N6" s="34">
+      <c r="N6" s="35">
         <v>21</v>
       </c>
-      <c r="O6" s="35" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:14" ht="42" x14ac:dyDescent="0.35">
       <c r="A7" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="25" t="s">
         <v>42</v>
-      </c>
-      <c r="B7" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>44</v>
       </c>
       <c r="D7" s="32">
         <v>45.692689999999999</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F7" s="32">
         <v>10.080247</v>
       </c>
       <c r="G7" s="27" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H7" s="32">
         <v>8.6352130000000002</v>
       </c>
       <c r="I7" s="27" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J7" s="32">
         <v>4.2536709999999998</v>
       </c>
       <c r="K7" s="27" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L7" s="33">
         <v>3.686391</v>
@@ -2341,46 +2322,43 @@
       <c r="M7" s="34">
         <v>6</v>
       </c>
-      <c r="N7" s="34">
+      <c r="N7" s="35">
         <v>23</v>
       </c>
-      <c r="O7" s="35" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:14" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A8" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="25" t="s">
         <v>48</v>
-      </c>
-      <c r="B8" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>50</v>
       </c>
       <c r="D8" s="32">
         <v>22.139018</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F8" s="32">
         <v>16.235945000000001</v>
       </c>
       <c r="G8" s="27" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H8" s="32">
         <v>11.473042</v>
       </c>
       <c r="I8" s="27" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J8" s="32">
         <v>7.6559920000000004</v>
       </c>
       <c r="K8" s="27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L8" s="33">
         <v>5.5583850000000004</v>
@@ -2388,46 +2366,43 @@
       <c r="M8" s="34">
         <v>9</v>
       </c>
-      <c r="N8" s="34">
+      <c r="N8" s="35">
         <v>20</v>
       </c>
-      <c r="O8" s="35" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="67.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:14" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A9" s="16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D9" s="32">
         <v>19.969145999999999</v>
       </c>
       <c r="E9" s="37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F9" s="32">
         <v>15.644216</v>
       </c>
       <c r="G9" s="37" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H9" s="32">
         <v>13.425397</v>
       </c>
       <c r="I9" s="37" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J9" s="32">
         <v>6.1282430000000003</v>
       </c>
       <c r="K9" s="37" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L9" s="33">
         <v>6.1172469999999999</v>
@@ -2435,46 +2410,43 @@
       <c r="M9" s="34">
         <v>9</v>
       </c>
-      <c r="N9" s="34">
+      <c r="N9" s="35">
         <v>32</v>
       </c>
-      <c r="O9" s="35" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="56.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:14" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A10" s="16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D10" s="32">
         <v>16.833365000000001</v>
       </c>
       <c r="E10" s="37" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F10" s="32">
         <v>10.511786000000001</v>
       </c>
       <c r="G10" s="37" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H10" s="32">
         <v>6.4107200000000004</v>
       </c>
       <c r="I10" s="37" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J10" s="32">
         <v>6.1283779999999997</v>
       </c>
       <c r="K10" s="37" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L10" s="33">
         <v>4.7126070000000002</v>
@@ -2482,46 +2454,43 @@
       <c r="M10" s="34">
         <v>30</v>
       </c>
-      <c r="N10" s="34">
+      <c r="N10" s="35">
         <v>141</v>
       </c>
-      <c r="O10" s="35" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="67.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:14" ht="63" x14ac:dyDescent="0.35">
       <c r="A11" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="25" t="s">
         <v>64</v>
-      </c>
-      <c r="B11" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>66</v>
       </c>
       <c r="D11" s="26">
         <v>43.533850999999999</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F11" s="26">
         <v>17.761526</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H11" s="26">
         <v>11.569991</v>
       </c>
       <c r="I11" s="27" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J11" s="26">
         <v>3.2313399999999999</v>
       </c>
       <c r="K11" s="27" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L11" s="28">
         <v>2.0357530000000001</v>
@@ -2529,46 +2498,43 @@
       <c r="M11" s="29">
         <v>4</v>
       </c>
-      <c r="N11" s="29">
+      <c r="N11" s="30">
         <v>18</v>
       </c>
-      <c r="O11" s="30" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:14" ht="32" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C12" s="39" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D12" s="40">
         <v>40.583075999999998</v>
       </c>
       <c r="E12" s="41" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F12" s="40">
         <v>12.673529</v>
       </c>
       <c r="G12" s="41" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H12" s="40">
         <v>10.920812</v>
       </c>
       <c r="I12" s="41" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J12" s="40">
         <v>8.9215669999999996</v>
       </c>
       <c r="K12" s="41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L12" s="42">
         <v>5.3972420000000003</v>
@@ -2576,44 +2542,41 @@
       <c r="M12" s="43">
         <v>5</v>
       </c>
-      <c r="N12" s="43">
+      <c r="N12" s="44">
         <v>10</v>
       </c>
-      <c r="O12" s="44" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:14" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="45"/>
       <c r="B13" s="46" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C13" s="47" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D13" s="48">
         <v>13.317772</v>
       </c>
       <c r="E13" s="49" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F13" s="48">
         <v>12.659345999999999</v>
       </c>
       <c r="G13" s="49" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H13" s="48">
         <v>7.4658280000000001</v>
       </c>
       <c r="I13" s="49" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J13" s="48">
         <v>6.4773649999999998</v>
       </c>
       <c r="K13" s="49" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L13" s="50">
         <v>5.0799760000000003</v>
@@ -2621,46 +2584,43 @@
       <c r="M13" s="51">
         <v>26</v>
       </c>
-      <c r="N13" s="51">
+      <c r="N13" s="52">
         <v>121</v>
       </c>
-      <c r="O13" s="52">
-        <v>33.187745999999997</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:14" ht="42" x14ac:dyDescent="0.35">
       <c r="A14" s="16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D14" s="32">
         <v>66.535983000000002</v>
       </c>
       <c r="E14" s="37" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F14" s="32">
         <v>22.228726999999999</v>
       </c>
       <c r="G14" s="37" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H14" s="32">
         <v>5.8767240000000003</v>
       </c>
       <c r="I14" s="37" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J14" s="32">
         <v>1.3285579999999999</v>
       </c>
       <c r="K14" s="37" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L14" s="33">
         <v>0.94135500000000005</v>
@@ -2668,46 +2628,43 @@
       <c r="M14" s="34">
         <v>2</v>
       </c>
-      <c r="N14" s="34">
+      <c r="N14" s="35">
         <v>3</v>
       </c>
-      <c r="O14" s="35" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:14" ht="42" x14ac:dyDescent="0.35">
       <c r="A15" s="16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D15" s="32">
         <v>35.974795999999998</v>
       </c>
       <c r="E15" s="37" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F15" s="32">
         <v>16.626967</v>
       </c>
       <c r="G15" s="37" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H15" s="32">
         <v>14.079103999999999</v>
       </c>
       <c r="I15" s="37" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J15" s="32">
         <v>10.642326000000001</v>
       </c>
       <c r="K15" s="37" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L15" s="33">
         <v>7.2255459999999996</v>
@@ -2715,46 +2672,43 @@
       <c r="M15" s="34">
         <v>4</v>
       </c>
-      <c r="N15" s="34">
+      <c r="N15" s="35">
         <v>8</v>
       </c>
-      <c r="O15" s="35" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:14" ht="42" x14ac:dyDescent="0.35">
       <c r="A16" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C16" s="36" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D16" s="32">
         <v>50.070086000000003</v>
       </c>
       <c r="E16" s="37" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F16" s="32">
         <v>20.789213</v>
       </c>
       <c r="G16" s="37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H16" s="32">
         <v>9.6725919999999999</v>
       </c>
       <c r="I16" s="37" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J16" s="32">
         <v>9.3240449999999999</v>
       </c>
       <c r="K16" s="37" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="L16" s="33">
         <v>1.3794120000000001</v>
@@ -2762,46 +2716,43 @@
       <c r="M16" s="34">
         <v>3</v>
       </c>
-      <c r="N16" s="34">
+      <c r="N16" s="35">
         <v>5</v>
       </c>
-      <c r="O16" s="35" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:14" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A17" s="16" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B17" s="53" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C17" s="54" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D17" s="55">
         <v>69.428841000000006</v>
       </c>
       <c r="E17" s="56" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F17" s="55">
         <v>25.413495999999999</v>
       </c>
       <c r="G17" s="56" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H17" s="55">
         <v>3.8737780000000002</v>
       </c>
       <c r="I17" s="56" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J17" s="55">
         <v>0.63806700000000005</v>
       </c>
       <c r="K17" s="56" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L17" s="57">
         <v>0.27411799999999997</v>
@@ -2809,46 +2760,43 @@
       <c r="M17" s="58">
         <v>2</v>
       </c>
-      <c r="N17" s="58">
+      <c r="N17" s="59">
         <v>2</v>
       </c>
-      <c r="O17" s="59" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:14" ht="42" x14ac:dyDescent="0.35">
       <c r="A18" s="16" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B18" s="53" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C18" s="54" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D18" s="55">
         <v>56.640346999999998</v>
       </c>
       <c r="E18" s="56" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F18" s="55">
         <v>30.98545</v>
       </c>
       <c r="G18" s="56" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H18" s="55">
         <v>5.2496029999999996</v>
       </c>
       <c r="I18" s="56" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J18" s="55">
         <v>1.362725</v>
       </c>
       <c r="K18" s="56" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L18" s="57">
         <v>1.3284450000000001</v>
@@ -2856,46 +2804,43 @@
       <c r="M18" s="58">
         <v>2</v>
       </c>
-      <c r="N18" s="58">
+      <c r="N18" s="59">
         <v>3</v>
       </c>
-      <c r="O18" s="59" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:14" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A19" s="16" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D19" s="26">
         <v>56.829875000000001</v>
       </c>
       <c r="E19" s="27" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F19" s="26">
         <v>11.590085</v>
       </c>
       <c r="G19" s="27" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H19" s="26">
         <v>11.201851</v>
       </c>
       <c r="I19" s="27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J19" s="26">
         <v>6.820379</v>
       </c>
       <c r="K19" s="27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L19" s="28">
         <v>3.8292619999999999</v>
@@ -2903,46 +2848,43 @@
       <c r="M19" s="29">
         <v>3</v>
       </c>
-      <c r="N19" s="29">
+      <c r="N19" s="30">
         <v>5</v>
       </c>
-      <c r="O19" s="30" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:14" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A20" s="16" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B20" s="53" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C20" s="54" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D20" s="55">
         <v>49.062092999999997</v>
       </c>
       <c r="E20" s="56" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F20" s="55">
         <v>42.257956</v>
       </c>
       <c r="G20" s="56" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H20" s="55">
         <v>6.6962960000000002</v>
       </c>
       <c r="I20" s="56" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J20" s="55">
         <v>0.63836999999999999</v>
       </c>
       <c r="K20" s="56" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L20" s="57">
         <v>0.33469500000000002</v>
@@ -2950,46 +2892,43 @@
       <c r="M20" s="58">
         <v>2</v>
       </c>
-      <c r="N20" s="58">
+      <c r="N20" s="59">
         <v>2</v>
       </c>
-      <c r="O20" s="59" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="67.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:14" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A21" s="16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B21" s="53" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C21" s="54" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D21" s="55">
         <v>54.700248000000002</v>
       </c>
       <c r="E21" s="56" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F21" s="55">
         <v>14.209835999999999</v>
       </c>
       <c r="G21" s="56" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H21" s="55">
         <v>12.264974</v>
       </c>
       <c r="I21" s="56" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J21" s="55">
         <v>3.565445</v>
       </c>
       <c r="K21" s="56" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L21" s="57">
         <v>3.5205869999999999</v>
@@ -2997,46 +2936,43 @@
       <c r="M21" s="58">
         <v>3</v>
       </c>
-      <c r="N21" s="58">
+      <c r="N21" s="59">
         <v>6</v>
       </c>
-      <c r="O21" s="59" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:14" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="16" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B22" s="60" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C22" s="61" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D22" s="62">
         <v>53.965532000000003</v>
       </c>
       <c r="E22" s="63" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F22" s="62">
         <v>15.347419</v>
       </c>
       <c r="G22" s="63" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H22" s="62">
         <v>8.2152259999999995</v>
       </c>
       <c r="I22" s="63" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J22" s="62">
         <v>6.8063880000000001</v>
       </c>
       <c r="K22" s="63" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L22" s="64">
         <v>3.3722150000000002</v>
@@ -3044,44 +2980,41 @@
       <c r="M22" s="65">
         <v>3</v>
       </c>
-      <c r="N22" s="65">
+      <c r="N22" s="66">
         <v>6</v>
       </c>
-      <c r="O22" s="66" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:14" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="45"/>
       <c r="B23" s="46" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C23" s="47" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D23" s="48">
         <v>35.621512000000003</v>
       </c>
       <c r="E23" s="49" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F23" s="48">
         <v>25.773603999999999</v>
       </c>
       <c r="G23" s="49" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H23" s="48">
         <v>5.5346270000000004</v>
       </c>
       <c r="I23" s="49" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J23" s="48">
         <v>5.3577919999999999</v>
       </c>
       <c r="K23" s="49" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L23" s="50">
         <v>4.0029820000000003</v>
@@ -3089,46 +3022,43 @@
       <c r="M23" s="51">
         <v>5</v>
       </c>
-      <c r="N23" s="51">
+      <c r="N23" s="52">
         <v>11</v>
       </c>
-      <c r="O23" s="52">
-        <v>34.258119999999998</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="67.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:14" ht="63" x14ac:dyDescent="0.35">
       <c r="A24" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B24" s="67" t="s">
+        <v>110</v>
+      </c>
+      <c r="C24" s="68" t="s">
         <v>111</v>
-      </c>
-      <c r="B24" s="67" t="s">
-        <v>112</v>
-      </c>
-      <c r="C24" s="68" t="s">
-        <v>113</v>
       </c>
       <c r="D24" s="69">
         <v>64.850318999999999</v>
       </c>
       <c r="E24" s="70" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F24" s="69">
         <v>17.387991</v>
       </c>
       <c r="G24" s="70" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H24" s="69">
         <v>4.9519929999999999</v>
       </c>
       <c r="I24" s="70" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J24" s="69">
         <v>3.4075419999999998</v>
       </c>
       <c r="K24" s="70" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L24" s="71">
         <v>1.784724</v>
@@ -3136,46 +3066,43 @@
       <c r="M24" s="72">
         <v>2</v>
       </c>
-      <c r="N24" s="72">
+      <c r="N24" s="73">
         <v>4</v>
       </c>
-      <c r="O24" s="73" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="56.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:14" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A25" s="16" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B25" s="31" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C25" s="36" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D25" s="32">
         <v>9.4637419999999999</v>
       </c>
       <c r="E25" s="37" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F25" s="32">
         <v>8.6070609999999999</v>
       </c>
       <c r="G25" s="37" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H25" s="32">
         <v>7.2316799999999999</v>
       </c>
       <c r="I25" s="37" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J25" s="32">
         <v>6.1724949999999996</v>
       </c>
       <c r="K25" s="37" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L25" s="33">
         <v>6.1463380000000001</v>
@@ -3183,46 +3110,43 @@
       <c r="M25" s="34">
         <v>24</v>
       </c>
-      <c r="N25" s="34">
+      <c r="N25" s="35">
         <v>79</v>
       </c>
-      <c r="O25" s="35" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="56.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:14" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A26" s="16" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C26" s="36" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D26" s="32">
         <v>35.980141000000003</v>
       </c>
       <c r="E26" s="37" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F26" s="32">
         <v>35.453645999999999</v>
       </c>
       <c r="G26" s="37" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H26" s="32">
         <v>25.706330000000001</v>
       </c>
       <c r="I26" s="37" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J26" s="32">
         <v>0.86241800000000002</v>
       </c>
       <c r="K26" s="37" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="L26" s="33">
         <v>0.54662100000000002</v>
@@ -3230,46 +3154,43 @@
       <c r="M26" s="34">
         <v>3</v>
       </c>
-      <c r="N26" s="34">
+      <c r="N26" s="35">
         <v>3</v>
       </c>
-      <c r="O26" s="35" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="56.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:14" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A27" s="16" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B27" s="31" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C27" s="36" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D27" s="32">
         <v>32.924799999999998</v>
       </c>
       <c r="E27" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F27" s="32">
         <v>8.2905960000000007</v>
       </c>
       <c r="G27" s="37" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H27" s="32">
         <v>6.4826579999999998</v>
       </c>
       <c r="I27" s="37" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J27" s="32">
         <v>6.1992919999999998</v>
       </c>
       <c r="K27" s="37" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L27" s="33">
         <v>5.8500990000000002</v>
@@ -3277,46 +3198,43 @@
       <c r="M27" s="34">
         <v>11</v>
       </c>
-      <c r="N27" s="34">
+      <c r="N27" s="35">
         <v>38</v>
       </c>
-      <c r="O27" s="35" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="67.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:14" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A28" s="16" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B28" s="31" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C28" s="36" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D28" s="32">
         <v>15.862484</v>
       </c>
       <c r="E28" s="37" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F28" s="32">
         <v>9.3760499999999993</v>
       </c>
       <c r="G28" s="37" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H28" s="32">
         <v>4.5717179999999997</v>
       </c>
       <c r="I28" s="37" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J28" s="32">
         <v>3.7496230000000002</v>
       </c>
       <c r="K28" s="37" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L28" s="33">
         <v>3.5491160000000002</v>
@@ -3324,46 +3242,43 @@
       <c r="M28" s="34">
         <v>48</v>
       </c>
-      <c r="N28" s="34">
+      <c r="N28" s="35">
         <v>126</v>
       </c>
-      <c r="O28" s="35" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" ht="56.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:14" ht="42" x14ac:dyDescent="0.35">
       <c r="A29" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="B29" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="C29" s="36" t="s">
         <v>133</v>
-      </c>
-      <c r="B29" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="C29" s="36" t="s">
-        <v>135</v>
       </c>
       <c r="D29" s="32">
         <v>18.912362999999999</v>
       </c>
       <c r="E29" s="37" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F29" s="32">
         <v>8.9908450000000002</v>
       </c>
       <c r="G29" s="37" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H29" s="32">
         <v>7.8304720000000003</v>
       </c>
       <c r="I29" s="37" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J29" s="32">
         <v>5.9486970000000001</v>
       </c>
       <c r="K29" s="37" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L29" s="33">
         <v>3.9307099999999999</v>
@@ -3371,46 +3286,43 @@
       <c r="M29" s="34">
         <v>18</v>
       </c>
-      <c r="N29" s="34">
+      <c r="N29" s="35">
         <v>42</v>
       </c>
-      <c r="O29" s="35" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" ht="56.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:14" ht="42" x14ac:dyDescent="0.35">
       <c r="A30" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="B30" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="C30" s="36" t="s">
         <v>136</v>
-      </c>
-      <c r="B30" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="C30" s="36" t="s">
-        <v>138</v>
       </c>
       <c r="D30" s="32">
         <v>11.002801</v>
       </c>
       <c r="E30" s="37" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F30" s="32">
         <v>9.9010259999999999</v>
       </c>
       <c r="G30" s="37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H30" s="32">
         <v>6.7464089999999999</v>
       </c>
       <c r="I30" s="37" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J30" s="32">
         <v>4.3714089999999999</v>
       </c>
       <c r="K30" s="37" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L30" s="33">
         <v>4.1886229999999998</v>
@@ -3418,46 +3330,43 @@
       <c r="M30" s="34">
         <v>41</v>
       </c>
-      <c r="N30" s="34">
+      <c r="N30" s="35">
         <v>117</v>
       </c>
-      <c r="O30" s="35" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:14" ht="42" x14ac:dyDescent="0.35">
       <c r="A31" s="16" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B31" s="31" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C31" s="36" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D31" s="32">
         <v>65.640930999999995</v>
       </c>
       <c r="E31" s="37" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F31" s="32">
         <v>7.5928719999999998</v>
       </c>
       <c r="G31" s="37" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H31" s="32">
         <v>6.6234859999999998</v>
       </c>
       <c r="I31" s="37" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J31" s="32">
         <v>3.615151</v>
       </c>
       <c r="K31" s="37" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L31" s="33">
         <v>3.5918839999999999</v>
@@ -3465,46 +3374,43 @@
       <c r="M31" s="34">
         <v>3</v>
       </c>
-      <c r="N31" s="34">
+      <c r="N31" s="35">
         <v>7</v>
       </c>
-      <c r="O31" s="35" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:14" ht="42" x14ac:dyDescent="0.35">
       <c r="A32" s="16" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B32" s="31" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C32" s="36" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D32" s="32">
         <v>41.395786999999999</v>
       </c>
       <c r="E32" s="37" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F32" s="32">
         <v>37.635990999999997</v>
       </c>
       <c r="G32" s="37" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H32" s="32">
         <v>5.3877470000000001</v>
       </c>
       <c r="I32" s="37" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J32" s="32">
         <v>2.4033259999999999</v>
       </c>
       <c r="K32" s="37" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="L32" s="33">
         <v>1.1364970000000001</v>
@@ -3512,46 +3418,43 @@
       <c r="M32" s="34">
         <v>2</v>
       </c>
-      <c r="N32" s="34">
+      <c r="N32" s="35">
         <v>8</v>
       </c>
-      <c r="O32" s="35" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" ht="67.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:14" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A33" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="B33" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="C33" s="36" t="s">
         <v>147</v>
-      </c>
-      <c r="B33" s="31" t="s">
-        <v>148</v>
-      </c>
-      <c r="C33" s="36" t="s">
-        <v>149</v>
       </c>
       <c r="D33" s="32">
         <v>36.605826</v>
       </c>
       <c r="E33" s="37" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F33" s="32">
         <v>30.618195</v>
       </c>
       <c r="G33" s="37" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H33" s="32">
         <v>7.9445129999999997</v>
       </c>
       <c r="I33" s="37" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J33" s="32">
         <v>7.2525089999999999</v>
       </c>
       <c r="K33" s="37" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L33" s="33">
         <v>4.1798270000000004</v>
@@ -3559,46 +3462,43 @@
       <c r="M33" s="34">
         <v>3</v>
       </c>
-      <c r="N33" s="34">
+      <c r="N33" s="35">
         <v>7</v>
       </c>
-      <c r="O33" s="35" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" ht="67.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:14" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A34" s="16" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B34" s="53" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C34" s="54" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D34" s="55">
         <v>82.127636999999993</v>
       </c>
       <c r="E34" s="56" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F34" s="55">
         <v>4.4168539999999998</v>
       </c>
       <c r="G34" s="56" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H34" s="55">
         <v>3.9477769999999999</v>
       </c>
       <c r="I34" s="56" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J34" s="55">
         <v>3.9039920000000001</v>
       </c>
       <c r="K34" s="56" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L34" s="57">
         <v>2.1239180000000002</v>
@@ -3606,46 +3506,43 @@
       <c r="M34" s="58">
         <v>1</v>
       </c>
-      <c r="N34" s="58">
+      <c r="N34" s="59">
         <v>3</v>
       </c>
-      <c r="O34" s="59" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:14" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A35" s="16" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B35" s="31" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C35" s="36" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D35" s="32">
         <v>22.137160000000002</v>
       </c>
       <c r="E35" s="37" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F35" s="32">
         <v>20.295635000000001</v>
       </c>
       <c r="G35" s="37" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H35" s="32">
         <v>13.927222</v>
       </c>
       <c r="I35" s="37" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J35" s="32">
         <v>13.615461</v>
       </c>
       <c r="K35" s="37" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L35" s="33">
         <v>8.5790729999999993</v>
@@ -3653,46 +3550,43 @@
       <c r="M35" s="34">
         <v>5</v>
       </c>
-      <c r="N35" s="34">
+      <c r="N35" s="35">
         <v>9</v>
       </c>
-      <c r="O35" s="35" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" ht="67.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:14" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A36" s="16" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B36" s="31" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C36" s="36" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D36" s="32">
         <v>44.461067</v>
       </c>
       <c r="E36" s="37" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F36" s="32">
         <v>3.4806720000000002</v>
       </c>
       <c r="G36" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H36" s="32">
         <v>3.100311</v>
       </c>
       <c r="I36" s="37" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J36" s="32">
         <v>3.062786</v>
       </c>
       <c r="K36" s="37" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L36" s="33">
         <v>3.0051260000000002</v>
@@ -3700,46 +3594,43 @@
       <c r="M36" s="34">
         <v>16</v>
       </c>
-      <c r="N36" s="34">
+      <c r="N36" s="35">
         <v>54</v>
       </c>
-      <c r="O36" s="35" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:14" ht="53" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="16" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B37" s="38" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C37" s="39" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D37" s="40">
         <v>44.145020000000002</v>
       </c>
       <c r="E37" s="41" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F37" s="40">
         <v>13.789617</v>
       </c>
       <c r="G37" s="41" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H37" s="40">
         <v>1.8947320000000001</v>
       </c>
       <c r="I37" s="41" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J37" s="40">
         <v>1.5485660000000001</v>
       </c>
       <c r="K37" s="41" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L37" s="42">
         <v>1.418293</v>
@@ -3747,44 +3638,41 @@
       <c r="M37" s="43">
         <v>18</v>
       </c>
-      <c r="N37" s="43">
+      <c r="N37" s="44">
         <v>54</v>
       </c>
-      <c r="O37" s="44" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:14" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="45"/>
       <c r="B38" s="46" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C38" s="47" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D38" s="48">
         <v>22.142071000000001</v>
       </c>
       <c r="E38" s="49" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F38" s="48">
         <v>5.7494540000000001</v>
       </c>
       <c r="G38" s="49" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H38" s="48">
         <v>3.2816160000000001</v>
       </c>
       <c r="I38" s="49" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J38" s="48">
         <v>3.0113259999999999</v>
       </c>
       <c r="K38" s="49" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L38" s="50">
         <v>2.5307019999999998</v>
@@ -3792,46 +3680,43 @@
       <c r="M38" s="51">
         <v>56</v>
       </c>
-      <c r="N38" s="51">
+      <c r="N38" s="52">
         <v>156</v>
       </c>
-      <c r="O38" s="52">
-        <v>14.765682999999999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" ht="67.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:14" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A39" s="16" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B39" s="74" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C39" s="75" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D39" s="76">
         <v>51.991132999999998</v>
       </c>
       <c r="E39" s="77" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F39" s="76">
         <v>27.009194000000001</v>
       </c>
       <c r="G39" s="77" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H39" s="76">
         <v>10.890601999999999</v>
       </c>
       <c r="I39" s="77" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J39" s="76">
         <v>2.568406</v>
       </c>
       <c r="K39" s="77" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="L39" s="78">
         <v>0.98707599999999995</v>
@@ -3839,46 +3724,43 @@
       <c r="M39" s="79">
         <v>2</v>
       </c>
-      <c r="N39" s="79">
+      <c r="N39" s="80">
         <v>4</v>
       </c>
-      <c r="O39" s="80" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" ht="67.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:14" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A40" s="16" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B40" s="31" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C40" s="36" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D40" s="32">
         <v>8.4678520000000006</v>
       </c>
       <c r="E40" s="37" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F40" s="32">
         <v>6.6067869999999997</v>
       </c>
       <c r="G40" s="37" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H40" s="32">
         <v>5.0592839999999999</v>
       </c>
       <c r="I40" s="37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J40" s="32">
         <v>4.6183399999999999</v>
       </c>
       <c r="K40" s="37" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L40" s="33">
         <v>3.906596</v>
@@ -3886,46 +3768,43 @@
       <c r="M40" s="34">
         <v>72</v>
       </c>
-      <c r="N40" s="34">
+      <c r="N40" s="35">
         <v>161</v>
       </c>
-      <c r="O40" s="35" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" ht="67.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:14" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A41" s="16" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B41" s="81" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C41" s="54" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D41" s="55">
         <v>88.381758000000005</v>
       </c>
       <c r="E41" s="56" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F41" s="55">
         <v>3.699954</v>
       </c>
       <c r="G41" s="56" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H41" s="55">
         <v>2.4849920000000001</v>
       </c>
       <c r="I41" s="56" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J41" s="55">
         <v>2.254302</v>
       </c>
       <c r="K41" s="56" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L41" s="57">
         <v>0.66389399999999998</v>
@@ -3933,46 +3812,43 @@
       <c r="M41" s="58">
         <v>1</v>
       </c>
-      <c r="N41" s="58">
+      <c r="N41" s="59">
         <v>2</v>
       </c>
-      <c r="O41" s="59" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:14" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A42" s="16" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B42" s="81" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C42" s="54" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D42" s="55">
         <v>34.793210999999999</v>
       </c>
       <c r="E42" s="56" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F42" s="55">
         <v>33.706671</v>
       </c>
       <c r="G42" s="56" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H42" s="55">
         <v>7.3990720000000003</v>
       </c>
       <c r="I42" s="56" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J42" s="55">
         <v>7.3273380000000001</v>
       </c>
       <c r="K42" s="56" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L42" s="57">
         <v>3.2649650000000001</v>
@@ -3980,46 +3856,43 @@
       <c r="M42" s="58">
         <v>3</v>
       </c>
-      <c r="N42" s="58">
+      <c r="N42" s="59">
         <v>7</v>
       </c>
-      <c r="O42" s="59" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" ht="67.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:14" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A43" s="16" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B43" s="31" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C43" s="36" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D43" s="32">
         <v>12.722813</v>
       </c>
       <c r="E43" s="37" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F43" s="32">
         <v>11.493611</v>
       </c>
       <c r="G43" s="37" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H43" s="32">
         <v>10.755068</v>
       </c>
       <c r="I43" s="37" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J43" s="32">
         <v>4.2374780000000003</v>
       </c>
       <c r="K43" s="37" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="L43" s="33">
         <v>3.2246109999999999</v>
@@ -4027,46 +3900,43 @@
       <c r="M43" s="34">
         <v>29</v>
       </c>
-      <c r="N43" s="34">
+      <c r="N43" s="35">
         <v>78</v>
       </c>
-      <c r="O43" s="35" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:14" ht="53" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="16" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B44" s="60" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C44" s="61" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D44" s="62">
         <v>13.947668999999999</v>
       </c>
       <c r="E44" s="63" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F44" s="62">
         <v>4.9456959999999999</v>
       </c>
       <c r="G44" s="63" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H44" s="62">
         <v>4.0154909999999999</v>
       </c>
       <c r="I44" s="63" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J44" s="62">
         <v>4.0062069999999999</v>
       </c>
       <c r="K44" s="63" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L44" s="64">
         <v>3.9108290000000001</v>
@@ -4074,44 +3944,41 @@
       <c r="M44" s="65">
         <v>52</v>
       </c>
-      <c r="N44" s="65">
+      <c r="N44" s="66">
         <v>131</v>
       </c>
-      <c r="O44" s="66" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:14" ht="63.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="45"/>
       <c r="B45" s="46" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C45" s="47" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D45" s="48">
         <v>22.507677999999999</v>
       </c>
       <c r="E45" s="49" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F45" s="48">
         <v>14.767792</v>
       </c>
       <c r="G45" s="49" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H45" s="48">
         <v>5.5984509999999998</v>
       </c>
       <c r="I45" s="49" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J45" s="48">
         <v>4.5207160000000002</v>
       </c>
       <c r="K45" s="49" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L45" s="50">
         <v>2.9204970000000001</v>
@@ -4119,46 +3986,43 @@
       <c r="M45" s="51">
         <v>38</v>
       </c>
-      <c r="N45" s="51">
+      <c r="N45" s="52">
         <v>128</v>
       </c>
-      <c r="O45" s="52">
-        <v>25.107586999999999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" ht="67.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:14" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A46" s="16" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B46" s="67" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C46" s="68" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D46" s="69">
         <v>39.384796000000001</v>
       </c>
       <c r="E46" s="70" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F46" s="69">
         <v>25.420949</v>
       </c>
       <c r="G46" s="70" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H46" s="69">
         <v>7.4907979999999998</v>
       </c>
       <c r="I46" s="70" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J46" s="69">
         <v>5.8464280000000004</v>
       </c>
       <c r="K46" s="70" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L46" s="71">
         <v>2.101804</v>
@@ -4166,46 +4030,43 @@
       <c r="M46" s="72">
         <v>4</v>
       </c>
-      <c r="N46" s="72">
+      <c r="N46" s="73">
         <v>14</v>
       </c>
-      <c r="O46" s="73" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" ht="56.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:14" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A47" s="16" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B47" s="31" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C47" s="36" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D47" s="32">
         <v>85.605777000000003</v>
       </c>
       <c r="E47" s="37" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F47" s="32">
         <v>3.1317740000000001</v>
       </c>
       <c r="G47" s="37" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H47" s="32">
         <v>2.2125140000000001</v>
       </c>
       <c r="I47" s="37" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J47" s="32">
         <v>2.1967409999999998</v>
       </c>
       <c r="K47" s="37" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="L47" s="33">
         <v>1.2584489999999999</v>
@@ -4213,46 +4074,43 @@
       <c r="M47" s="34">
         <v>1</v>
       </c>
-      <c r="N47" s="34">
+      <c r="N47" s="35">
         <v>3</v>
       </c>
-      <c r="O47" s="35" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" ht="67.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:14" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A48" s="16" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B48" s="81" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C48" s="54" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D48" s="55">
         <v>34.139454000000001</v>
       </c>
       <c r="E48" s="56" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F48" s="55">
         <v>23.708886</v>
       </c>
       <c r="G48" s="56" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H48" s="55">
         <v>7.8613169999999997</v>
       </c>
       <c r="I48" s="56" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J48" s="55">
         <v>5.2665940000000004</v>
       </c>
       <c r="K48" s="56" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L48" s="57">
         <v>3.4705370000000002</v>
@@ -4260,46 +4118,43 @@
       <c r="M48" s="58">
         <v>6</v>
       </c>
-      <c r="N48" s="58">
+      <c r="N48" s="59">
         <v>19</v>
       </c>
-      <c r="O48" s="59" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" ht="67.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:14" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A49" s="16" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B49" s="31" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C49" s="36" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D49" s="32">
         <v>19.202012</v>
       </c>
       <c r="E49" s="37" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F49" s="32">
         <v>16.483008000000002</v>
       </c>
       <c r="G49" s="37" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H49" s="32">
         <v>10.901503</v>
       </c>
       <c r="I49" s="37" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J49" s="32">
         <v>10.432779</v>
       </c>
       <c r="K49" s="37" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L49" s="33">
         <v>5.9717349999999998</v>
@@ -4307,46 +4162,43 @@
       <c r="M49" s="34">
         <v>8</v>
       </c>
-      <c r="N49" s="34">
+      <c r="N49" s="35">
         <v>20</v>
       </c>
-      <c r="O49" s="35" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" ht="67.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:14" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A50" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="B50" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="C50" s="36" t="s">
         <v>195</v>
-      </c>
-      <c r="B50" s="31" t="s">
-        <v>196</v>
-      </c>
-      <c r="C50" s="36" t="s">
-        <v>197</v>
       </c>
       <c r="D50" s="32">
         <v>9.4665189999999999</v>
       </c>
       <c r="E50" s="37" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F50" s="32">
         <v>6.7374999999999998</v>
       </c>
       <c r="G50" s="37" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H50" s="32">
         <v>4.6928599999999996</v>
       </c>
       <c r="I50" s="37" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J50" s="32">
         <v>3.4552010000000002</v>
       </c>
       <c r="K50" s="37" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="L50" s="33">
         <v>3.3570139999999999</v>
@@ -4354,46 +4206,43 @@
       <c r="M50" s="34">
         <v>63</v>
       </c>
-      <c r="N50" s="34">
+      <c r="N50" s="35">
         <v>140</v>
       </c>
-      <c r="O50" s="35" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" ht="56.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:14" ht="42" x14ac:dyDescent="0.35">
       <c r="A51" s="16" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C51" s="25" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D51" s="26">
         <v>57.510311000000002</v>
       </c>
       <c r="E51" s="27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F51" s="26">
         <v>18.905237</v>
       </c>
       <c r="G51" s="27" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H51" s="26">
         <v>4.0115439999999998</v>
       </c>
       <c r="I51" s="27" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J51" s="26">
         <v>1.852624</v>
       </c>
       <c r="K51" s="27" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L51" s="28">
         <v>1.619591</v>
@@ -4401,46 +4250,43 @@
       <c r="M51" s="29">
         <v>2</v>
       </c>
-      <c r="N51" s="29">
+      <c r="N51" s="30">
         <v>14</v>
       </c>
-      <c r="O51" s="30" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:14" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A52" s="16" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B52" s="31" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C52" s="36" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D52" s="32">
         <v>53.753486000000002</v>
       </c>
       <c r="E52" s="37" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F52" s="32">
         <v>42.445495999999999</v>
       </c>
       <c r="G52" s="37" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H52" s="32">
         <v>1.2022269999999999</v>
       </c>
       <c r="I52" s="37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J52" s="32">
         <v>0.44457000000000002</v>
       </c>
       <c r="K52" s="37" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L52" s="33">
         <v>0.41107700000000003</v>
@@ -4448,46 +4294,43 @@
       <c r="M52" s="34">
         <v>2</v>
       </c>
-      <c r="N52" s="34">
+      <c r="N52" s="35">
         <v>2</v>
       </c>
-      <c r="O52" s="35" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" ht="67.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:14" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A53" s="16" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B53" s="31" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C53" s="36" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D53" s="32">
         <v>70.413013000000007</v>
       </c>
       <c r="E53" s="37" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F53" s="32">
         <v>12.381880000000001</v>
       </c>
       <c r="G53" s="37" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H53" s="32">
         <v>12.214929</v>
       </c>
       <c r="I53" s="37" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J53" s="32">
         <v>1.478842</v>
       </c>
       <c r="K53" s="37" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L53" s="33">
         <v>0.61753499999999995</v>
@@ -4495,46 +4338,43 @@
       <c r="M53" s="34">
         <v>2</v>
       </c>
-      <c r="N53" s="34">
+      <c r="N53" s="35">
         <v>3</v>
       </c>
-      <c r="O53" s="35" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" ht="67.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:14" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A54" s="16" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B54" s="31" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C54" s="36" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D54" s="32">
         <v>36.936222000000001</v>
       </c>
       <c r="E54" s="37" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F54" s="32">
         <v>16.653348999999999</v>
       </c>
       <c r="G54" s="37" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H54" s="32">
         <v>11.711024999999999</v>
       </c>
       <c r="I54" s="37" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J54" s="32">
         <v>8.3090320000000002</v>
       </c>
       <c r="K54" s="37" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L54" s="33">
         <v>8.2604939999999996</v>
@@ -4542,46 +4382,43 @@
       <c r="M54" s="34">
         <v>5</v>
       </c>
-      <c r="N54" s="34">
+      <c r="N54" s="35">
         <v>8</v>
       </c>
-      <c r="O54" s="35" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" ht="67.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:14" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A55" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B55" s="31" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C55" s="36" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D55" s="32">
         <v>94.517188000000004</v>
       </c>
       <c r="E55" s="37" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F55" s="32">
         <v>0.81722099999999998</v>
       </c>
       <c r="G55" s="37" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H55" s="32">
         <v>0.58830700000000002</v>
       </c>
       <c r="I55" s="37" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="J55" s="32">
         <v>0.43018499999999998</v>
       </c>
       <c r="K55" s="37" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L55" s="33">
         <v>0.36826199999999998</v>
@@ -4589,46 +4426,43 @@
       <c r="M55" s="34">
         <v>1</v>
       </c>
-      <c r="N55" s="34">
+      <c r="N55" s="35">
         <v>1</v>
       </c>
-      <c r="O55" s="35" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" ht="67.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:14" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A56" s="16" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B56" s="31" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C56" s="36" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D56" s="32">
         <v>31.74221</v>
       </c>
       <c r="E56" s="37" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F56" s="32">
         <v>20.156582</v>
       </c>
       <c r="G56" s="37" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H56" s="32">
         <v>11.865487</v>
       </c>
       <c r="I56" s="37" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J56" s="32">
         <v>10.517172</v>
       </c>
       <c r="K56" s="37" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L56" s="33">
         <v>6.7030409999999998</v>
@@ -4636,46 +4470,43 @@
       <c r="M56" s="34">
         <v>5</v>
       </c>
-      <c r="N56" s="34">
+      <c r="N56" s="35">
         <v>7</v>
       </c>
-      <c r="O56" s="35" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:14" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A57" s="16" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B57" s="31" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C57" s="36" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D57" s="32">
         <v>71.263403999999994</v>
       </c>
       <c r="E57" s="37" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F57" s="32">
         <v>13.72378</v>
       </c>
       <c r="G57" s="37" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H57" s="32">
         <v>2.5143810000000002</v>
       </c>
       <c r="I57" s="37" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J57" s="32">
         <v>1.727873</v>
       </c>
       <c r="K57" s="37" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L57" s="33">
         <v>1.2486900000000001</v>
@@ -4683,46 +4514,43 @@
       <c r="M57" s="34">
         <v>2</v>
       </c>
-      <c r="N57" s="34">
+      <c r="N57" s="35">
         <v>5</v>
       </c>
-      <c r="O57" s="35" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" ht="67.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:14" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A58" s="16" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B58" s="31" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C58" s="36" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D58" s="32">
         <v>18.66703</v>
       </c>
       <c r="E58" s="37" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F58" s="32">
         <v>14.712719</v>
       </c>
       <c r="G58" s="37" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H58" s="32">
         <v>8.6703200000000002</v>
       </c>
       <c r="I58" s="37" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J58" s="32">
         <v>4.9451980000000004</v>
       </c>
       <c r="K58" s="37" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="L58" s="33">
         <v>3.1956259999999999</v>
@@ -4730,46 +4558,43 @@
       <c r="M58" s="34">
         <v>19</v>
       </c>
-      <c r="N58" s="34">
+      <c r="N58" s="35">
         <v>55</v>
       </c>
-      <c r="O58" s="35" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" ht="22.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="A59" s="16" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B59" s="31" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C59" s="36" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D59" s="32">
         <v>59.044756</v>
       </c>
       <c r="E59" s="37" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F59" s="32">
         <v>12.433629</v>
       </c>
       <c r="G59" s="37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H59" s="32">
         <v>9.0217100000000006</v>
       </c>
       <c r="I59" s="37" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="J59" s="32">
         <v>4.2662040000000001</v>
       </c>
       <c r="K59" s="37" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L59" s="33">
         <v>3.2961779999999998</v>
@@ -4777,46 +4602,43 @@
       <c r="M59" s="34">
         <v>3</v>
       </c>
-      <c r="N59" s="34">
+      <c r="N59" s="35">
         <v>6</v>
       </c>
-      <c r="O59" s="35" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:14" ht="53" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="16" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B60" s="38" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C60" s="39" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D60" s="40">
         <v>40.171109000000001</v>
       </c>
       <c r="E60" s="41" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F60" s="40">
         <v>21.909607000000001</v>
       </c>
       <c r="G60" s="41" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H60" s="40">
         <v>5.9589270000000001</v>
       </c>
       <c r="I60" s="41" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="J60" s="40">
         <v>5.4003909999999999</v>
       </c>
       <c r="K60" s="41" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L60" s="42">
         <v>2.9012340000000001</v>
@@ -4824,44 +4646,41 @@
       <c r="M60" s="43">
         <v>5</v>
       </c>
-      <c r="N60" s="43">
+      <c r="N60" s="44">
         <v>17</v>
       </c>
-      <c r="O60" s="44" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:14" ht="63.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="45"/>
       <c r="B61" s="46" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C61" s="47" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D61" s="48">
         <v>30.242149999999999</v>
       </c>
       <c r="E61" s="49" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F61" s="48">
         <v>29.845932000000001</v>
       </c>
       <c r="G61" s="49" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H61" s="48">
         <v>5.1577529999999996</v>
       </c>
       <c r="I61" s="49" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="J61" s="48">
         <v>4.6614440000000004</v>
       </c>
       <c r="K61" s="49" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L61" s="50">
         <v>3.574236</v>
@@ -4869,44 +4688,41 @@
       <c r="M61" s="51">
         <v>6</v>
       </c>
-      <c r="N61" s="51">
+      <c r="N61" s="52">
         <v>30</v>
       </c>
-      <c r="O61" s="52">
-        <v>20.724094000000001</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:14" ht="63.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="82"/>
       <c r="B62" s="83" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C62" s="84" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D62" s="85">
         <v>20.547740999999998</v>
       </c>
       <c r="E62" s="86" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F62" s="85">
         <v>13.825248</v>
       </c>
       <c r="G62" s="86" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H62" s="85">
         <v>6.5380960000000004</v>
       </c>
       <c r="I62" s="86" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J62" s="85">
         <v>3.0714899999999998</v>
       </c>
       <c r="K62" s="86" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L62" s="87">
         <v>2.6661480000000002</v>
@@ -4914,44 +4730,41 @@
       <c r="M62" s="88">
         <v>43</v>
       </c>
-      <c r="N62" s="88">
+      <c r="N62" s="89">
         <v>164</v>
       </c>
-      <c r="O62" s="89">
-        <v>24.327534</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" ht="102" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:14" ht="84.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="82"/>
       <c r="B63" s="83" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C63" s="84" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D63" s="85">
         <v>5.3309829999999998</v>
       </c>
       <c r="E63" s="86" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F63" s="85">
         <v>4.5130790000000003</v>
       </c>
       <c r="G63" s="86" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H63" s="85">
         <v>4.2250829999999997</v>
       </c>
       <c r="I63" s="86" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="J63" s="85">
         <v>3.119408</v>
       </c>
       <c r="K63" s="86" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="L63" s="87">
         <v>2.9468040000000002</v>
@@ -4959,44 +4772,41 @@
       <c r="M63" s="88">
         <v>163</v>
       </c>
-      <c r="N63" s="88">
+      <c r="N63" s="89">
         <v>374</v>
       </c>
-      <c r="O63" s="89">
-        <v>28.978708000000001</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" ht="67.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:14" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A64" s="90"/>
       <c r="B64" s="91" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C64" s="92" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D64" s="93">
         <v>8.7462160000000004</v>
       </c>
       <c r="E64" s="94" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F64" s="93">
         <v>4.9764879999999998</v>
       </c>
       <c r="G64" s="94" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H64" s="93">
         <v>4.0000629999999999</v>
       </c>
       <c r="I64" s="94" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J64" s="93">
         <v>3.8288069999999998</v>
       </c>
       <c r="K64" s="94" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="L64" s="95">
         <v>3.1131669999999998</v>
@@ -5004,44 +4814,41 @@
       <c r="M64" s="96">
         <v>84</v>
       </c>
-      <c r="N64" s="96">
+      <c r="N64" s="97">
         <v>217</v>
       </c>
-      <c r="O64" s="97">
-        <v>24.779928000000002</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" ht="101.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:14" ht="84" x14ac:dyDescent="0.35">
       <c r="A65" s="90"/>
       <c r="B65" s="98" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C65" s="99" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D65" s="100">
         <v>8.0240290000000005</v>
       </c>
       <c r="E65" s="101" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F65" s="100">
         <v>5.3054389999999998</v>
       </c>
       <c r="G65" s="101" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H65" s="100">
         <v>4.5676199999999998</v>
       </c>
       <c r="I65" s="101" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J65" s="100">
         <v>2.9048639999999999</v>
       </c>
       <c r="K65" s="101" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L65" s="102">
         <v>2.1946319999999999</v>
@@ -5049,44 +4856,41 @@
       <c r="M65" s="103">
         <v>147</v>
       </c>
-      <c r="N65" s="103">
+      <c r="N65" s="104">
         <v>347</v>
       </c>
-      <c r="O65" s="104">
-        <v>23.843699999999998</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" ht="102" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:14" ht="84.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="90"/>
       <c r="B66" s="105" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C66" s="106" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D66" s="107">
         <v>5.8477569999999996</v>
       </c>
       <c r="E66" s="108" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F66" s="107">
         <v>4.4342779999999999</v>
       </c>
       <c r="G66" s="108" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H66" s="107">
         <v>4.1859060000000001</v>
       </c>
       <c r="I66" s="108" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="J66" s="107">
         <v>3.0182359999999999</v>
       </c>
       <c r="K66" s="108" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="L66" s="109">
         <v>2.8509259999999998</v>
@@ -5094,44 +4898,41 @@
       <c r="M66" s="110">
         <v>163</v>
       </c>
-      <c r="N66" s="110">
+      <c r="N66" s="111">
         <v>376</v>
       </c>
-      <c r="O66" s="111">
-        <v>28.733236000000002</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" ht="78.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:14" ht="63" x14ac:dyDescent="0.35">
       <c r="A67" s="90"/>
       <c r="B67" s="98" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C67" s="99" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D67" s="100">
         <v>18.342389000000001</v>
       </c>
       <c r="E67" s="101" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F67" s="100">
         <v>7.6033049999999998</v>
       </c>
       <c r="G67" s="101" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H67" s="100">
         <v>7.3774930000000003</v>
       </c>
       <c r="I67" s="101" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J67" s="100">
         <v>4.2082879999999996</v>
       </c>
       <c r="K67" s="101" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L67" s="102">
         <v>3.5787879999999999</v>
@@ -5139,44 +4940,41 @@
       <c r="M67" s="103">
         <v>70</v>
       </c>
-      <c r="N67" s="103">
+      <c r="N67" s="104">
         <v>190</v>
       </c>
-      <c r="O67" s="104">
-        <v>21.101320000000001</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" ht="78.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:14" ht="63" x14ac:dyDescent="0.35">
       <c r="A68" s="90"/>
       <c r="B68" s="98" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C68" s="99" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D68" s="100">
         <v>25.736991</v>
       </c>
       <c r="E68" s="101" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F68" s="100">
         <v>16.531096999999999</v>
       </c>
       <c r="G68" s="101" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H68" s="100">
         <v>3.852989</v>
       </c>
       <c r="I68" s="101" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J68" s="100">
         <v>3.6248279999999999</v>
       </c>
       <c r="K68" s="101" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L68" s="102">
         <v>2.8534760000000001</v>
@@ -5184,44 +4982,41 @@
       <c r="M68" s="103">
         <v>38</v>
       </c>
-      <c r="N68" s="103">
+      <c r="N68" s="104">
         <v>142</v>
       </c>
-      <c r="O68" s="104">
-        <v>22.991353</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" ht="56.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:14" ht="42" x14ac:dyDescent="0.35">
       <c r="A69" s="90"/>
       <c r="B69" s="98" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C69" s="99" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D69" s="100">
         <v>24.203841000000001</v>
       </c>
       <c r="E69" s="101" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F69" s="100">
         <v>19.710345</v>
       </c>
       <c r="G69" s="101" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H69" s="100">
         <v>5.1874310000000001</v>
       </c>
       <c r="I69" s="101" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J69" s="100">
         <v>4.7866540000000004</v>
       </c>
       <c r="K69" s="101" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L69" s="102">
         <v>3.478472</v>
@@ -5229,44 +5024,41 @@
       <c r="M69" s="103">
         <v>16</v>
       </c>
-      <c r="N69" s="103">
+      <c r="N69" s="104">
         <v>78</v>
       </c>
-      <c r="O69" s="104">
-        <v>21.202365</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:14" ht="42" x14ac:dyDescent="0.35">
       <c r="A70" s="90"/>
       <c r="B70" s="98" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C70" s="99" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D70" s="100">
         <v>50.976303999999999</v>
       </c>
       <c r="E70" s="101" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F70" s="100">
         <v>14.875811000000001</v>
       </c>
       <c r="G70" s="101" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H70" s="100">
         <v>5.7169350000000003</v>
       </c>
       <c r="I70" s="101" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J70" s="100">
         <v>5.0738500000000002</v>
       </c>
       <c r="K70" s="101" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L70" s="102">
         <v>3.9745919999999999</v>
@@ -5274,44 +5066,41 @@
       <c r="M70" s="103">
         <v>4</v>
       </c>
-      <c r="N70" s="103">
+      <c r="N70" s="104">
         <v>11</v>
       </c>
-      <c r="O70" s="104">
-        <v>33.531272999999999</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" ht="78.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:14" ht="63" x14ac:dyDescent="0.35">
       <c r="A71" s="90"/>
       <c r="B71" s="98" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C71" s="99" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D71" s="100">
         <v>30.242149999999999</v>
       </c>
       <c r="E71" s="101" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F71" s="100">
         <v>29.845932000000001</v>
       </c>
       <c r="G71" s="101" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H71" s="100">
         <v>5.1577529999999996</v>
       </c>
       <c r="I71" s="101" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="J71" s="100">
         <v>4.6614440000000004</v>
       </c>
       <c r="K71" s="101" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L71" s="102">
         <v>3.574236</v>
@@ -5319,44 +5108,41 @@
       <c r="M71" s="103">
         <v>6</v>
       </c>
-      <c r="N71" s="103">
+      <c r="N71" s="104">
         <v>30</v>
       </c>
-      <c r="O71" s="104">
-        <v>20.724094000000001</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" ht="56.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:14" ht="42" x14ac:dyDescent="0.35">
       <c r="A72" s="90"/>
       <c r="B72" s="98" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C72" s="99" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D72" s="100">
         <v>16.787877999999999</v>
       </c>
       <c r="E72" s="101" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F72" s="100">
         <v>8.4707919999999994</v>
       </c>
       <c r="G72" s="101" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H72" s="100">
         <v>5.5286520000000001</v>
       </c>
       <c r="I72" s="101" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J72" s="100">
         <v>4.8091689999999998</v>
       </c>
       <c r="K72" s="101" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L72" s="102">
         <v>3.6181139999999998</v>
@@ -5364,44 +5150,41 @@
       <c r="M72" s="103">
         <v>43</v>
       </c>
-      <c r="N72" s="103">
+      <c r="N72" s="104">
         <v>130</v>
       </c>
-      <c r="O72" s="104">
-        <v>11.810817</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:14" ht="42" x14ac:dyDescent="0.35">
       <c r="A73" s="90"/>
       <c r="B73" s="98" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C73" s="99" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D73" s="100">
         <v>13.388134000000001</v>
       </c>
       <c r="E73" s="101" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F73" s="100">
         <v>11.195773000000001</v>
       </c>
       <c r="G73" s="101" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H73" s="100">
         <v>6.6103079999999999</v>
       </c>
       <c r="I73" s="101" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J73" s="100">
         <v>5.5891890000000002</v>
       </c>
       <c r="K73" s="101" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L73" s="102">
         <v>5.4398520000000001</v>
@@ -5409,44 +5192,41 @@
       <c r="M73" s="103">
         <v>29</v>
       </c>
-      <c r="N73" s="103">
+      <c r="N73" s="104">
         <v>131</v>
       </c>
-      <c r="O73" s="104">
-        <v>32.537933000000002</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" ht="78.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:14" ht="63" x14ac:dyDescent="0.35">
       <c r="A74" s="90"/>
       <c r="B74" s="98" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C74" s="99" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D74" s="100">
         <v>28.060310999999999</v>
       </c>
       <c r="E74" s="101" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F74" s="100">
         <v>17.300868999999999</v>
       </c>
       <c r="G74" s="101" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H74" s="100">
         <v>5.1761119999999998</v>
       </c>
       <c r="I74" s="101" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J74" s="100">
         <v>4.7078230000000003</v>
       </c>
       <c r="K74" s="101" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L74" s="102">
         <v>3.7976009999999998</v>
@@ -5454,44 +5234,41 @@
       <c r="M74" s="103">
         <v>18</v>
       </c>
-      <c r="N74" s="103">
+      <c r="N74" s="104">
         <v>65</v>
       </c>
-      <c r="O74" s="104">
-        <v>34.226131000000002</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:14" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="90"/>
       <c r="B75" s="98" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C75" s="112" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D75" s="113">
         <v>57.486566000000003</v>
       </c>
       <c r="E75" s="114" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F75" s="113">
         <v>9.0315150000000006</v>
       </c>
       <c r="G75" s="114" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H75" s="113">
         <v>8.3530800000000003</v>
       </c>
       <c r="I75" s="114" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J75" s="113">
         <v>4.9115500000000001</v>
       </c>
       <c r="K75" s="114" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L75" s="115">
         <v>2.6026229999999999</v>
@@ -5499,44 +5276,41 @@
       <c r="M75" s="116">
         <v>4</v>
       </c>
-      <c r="N75" s="116">
+      <c r="N75" s="117">
         <v>10</v>
       </c>
-      <c r="O75" s="117">
-        <v>34.891207000000001</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" ht="101.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:14" ht="84" x14ac:dyDescent="0.35">
       <c r="A76" s="90"/>
       <c r="B76" s="118" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C76" s="119" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D76" s="120">
         <v>11.124437</v>
       </c>
       <c r="E76" s="121" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F76" s="120">
         <v>6.3831910000000001</v>
       </c>
       <c r="G76" s="121" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H76" s="120">
         <v>5.8636090000000003</v>
       </c>
       <c r="I76" s="121" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J76" s="120">
         <v>3.4013469999999999</v>
       </c>
       <c r="K76" s="121" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="L76" s="122">
         <v>2.1417920000000001</v>
@@ -5544,44 +5318,41 @@
       <c r="M76" s="123">
         <v>96</v>
       </c>
-      <c r="N76" s="123">
+      <c r="N76" s="124">
         <v>230</v>
       </c>
-      <c r="O76" s="124">
-        <v>54.675570999999998</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:14" ht="42" x14ac:dyDescent="0.35">
       <c r="A77" s="90"/>
       <c r="B77" s="98" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C77" s="99" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D77" s="100">
         <v>12.541760999999999</v>
       </c>
       <c r="E77" s="101" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F77" s="100">
         <v>7.819604</v>
       </c>
       <c r="G77" s="101" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H77" s="100">
         <v>6.6142209999999997</v>
       </c>
       <c r="I77" s="101" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J77" s="100">
         <v>5.0488590000000002</v>
       </c>
       <c r="K77" s="101" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L77" s="102">
         <v>3.611297</v>
@@ -5589,44 +5360,41 @@
       <c r="M77" s="103">
         <v>48</v>
       </c>
-      <c r="N77" s="103">
+      <c r="N77" s="104">
         <v>156</v>
       </c>
-      <c r="O77" s="104">
-        <v>20.553570000000001</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" ht="101.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:14" ht="84" x14ac:dyDescent="0.35">
       <c r="A78" s="90"/>
       <c r="B78" s="98" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C78" s="99" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D78" s="100">
         <v>6.7832090000000003</v>
       </c>
       <c r="E78" s="101" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F78" s="100">
         <v>4.647265</v>
       </c>
       <c r="G78" s="101" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H78" s="100">
         <v>3.458183</v>
       </c>
       <c r="I78" s="101" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J78" s="100">
         <v>3.226623</v>
       </c>
       <c r="K78" s="101" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="L78" s="102">
         <v>3.1276519999999999</v>
@@ -5634,44 +5402,41 @@
       <c r="M78" s="103">
         <v>174</v>
       </c>
-      <c r="N78" s="103">
+      <c r="N78" s="104">
         <v>378</v>
       </c>
-      <c r="O78" s="104">
-        <v>51.314427999999999</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:14" ht="63.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="90"/>
       <c r="B79" s="105" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C79" s="106" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D79" s="107">
         <v>6.5341690000000003</v>
       </c>
       <c r="E79" s="108" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F79" s="107">
         <v>3.4636100000000001</v>
       </c>
       <c r="G79" s="108" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H79" s="107">
         <v>3.2930290000000002</v>
       </c>
       <c r="I79" s="108" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J79" s="107">
         <v>3.0022380000000002</v>
       </c>
       <c r="K79" s="108" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="L79" s="109">
         <v>2.813377</v>
@@ -5679,44 +5444,41 @@
       <c r="M79" s="110">
         <v>156</v>
       </c>
-      <c r="N79" s="110">
+      <c r="N79" s="111">
         <v>355</v>
       </c>
-      <c r="O79" s="111">
-        <v>30.951657999999998</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" ht="78.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:14" ht="63" x14ac:dyDescent="0.35">
       <c r="A80" s="90"/>
       <c r="B80" s="118" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C80" s="119" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D80" s="120">
         <v>56.895676999999999</v>
       </c>
       <c r="E80" s="121" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F80" s="120">
         <v>19.812033</v>
       </c>
       <c r="G80" s="121" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H80" s="120">
         <v>4.4752660000000004</v>
       </c>
       <c r="I80" s="121" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J80" s="120">
         <v>2.9763259999999998</v>
       </c>
       <c r="K80" s="121" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L80" s="122">
         <v>2.6067640000000001</v>
@@ -5724,44 +5486,41 @@
       <c r="M80" s="123">
         <v>2</v>
       </c>
-      <c r="N80" s="123">
+      <c r="N80" s="124">
         <v>7</v>
       </c>
-      <c r="O80" s="124">
-        <v>32.308979000000001</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" ht="78.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:14" ht="63" x14ac:dyDescent="0.35">
       <c r="A81" s="90"/>
       <c r="B81" s="98" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C81" s="99" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D81" s="100">
         <v>38.112766000000001</v>
       </c>
       <c r="E81" s="101" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F81" s="100">
         <v>12.892087999999999</v>
       </c>
       <c r="G81" s="101" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H81" s="100">
         <v>10.21987</v>
       </c>
       <c r="I81" s="101" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J81" s="100">
         <v>5.7963990000000001</v>
       </c>
       <c r="K81" s="101" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L81" s="102">
         <v>2.1696469999999999</v>
@@ -5769,44 +5528,41 @@
       <c r="M81" s="103">
         <v>11</v>
       </c>
-      <c r="N81" s="103">
+      <c r="N81" s="104">
         <v>80</v>
       </c>
-      <c r="O81" s="104">
-        <v>34.52919</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" ht="67.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:14" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A82" s="90"/>
       <c r="B82" s="98" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C82" s="99" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D82" s="100">
         <v>17.093326999999999</v>
       </c>
       <c r="E82" s="101" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F82" s="100">
         <v>9.9591480000000008</v>
       </c>
       <c r="G82" s="101" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H82" s="100">
         <v>2.8298220000000001</v>
       </c>
       <c r="I82" s="101" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J82" s="100">
         <v>2.8182659999999999</v>
       </c>
       <c r="K82" s="101" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L82" s="102">
         <v>2.7957109999999998</v>
@@ -5814,44 +5570,41 @@
       <c r="M82" s="103">
         <v>63</v>
       </c>
-      <c r="N82" s="103">
+      <c r="N82" s="104">
         <v>196</v>
       </c>
-      <c r="O82" s="104">
-        <v>22.899338</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" ht="102" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:14" ht="84.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="90"/>
       <c r="B83" s="105" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C83" s="106" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D83" s="107">
         <v>4.8658720000000004</v>
       </c>
       <c r="E83" s="108" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F83" s="107">
         <v>3.4622069999999998</v>
       </c>
       <c r="G83" s="108" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H83" s="107">
         <v>3.3918270000000001</v>
       </c>
       <c r="I83" s="108" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J83" s="107">
         <v>3.1310280000000001</v>
       </c>
       <c r="K83" s="108" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L83" s="109">
         <v>2.4455049999999998</v>
@@ -5859,44 +5612,41 @@
       <c r="M83" s="110">
         <v>171</v>
       </c>
-      <c r="N83" s="110">
+      <c r="N83" s="111">
         <v>386</v>
       </c>
-      <c r="O83" s="111">
-        <v>28.458904</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" ht="78.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:14" ht="63" x14ac:dyDescent="0.35">
       <c r="A84" s="90"/>
       <c r="B84" s="118" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C84" s="119" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D84" s="120">
         <v>27.69659</v>
       </c>
       <c r="E84" s="121" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F84" s="120">
         <v>12.625821999999999</v>
       </c>
       <c r="G84" s="121" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H84" s="120">
         <v>6.2040240000000004</v>
       </c>
       <c r="I84" s="121" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J84" s="120">
         <v>2.9155120000000001</v>
       </c>
       <c r="K84" s="121" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L84" s="122">
         <v>2.735303</v>
@@ -5904,44 +5654,41 @@
       <c r="M84" s="123">
         <v>19</v>
       </c>
-      <c r="N84" s="123">
+      <c r="N84" s="124">
         <v>69</v>
       </c>
-      <c r="O84" s="124">
-        <v>25.320744000000001</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:14" ht="42" x14ac:dyDescent="0.35">
       <c r="A85" s="90"/>
       <c r="B85" s="125" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C85" s="99" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D85" s="100">
         <v>6.9935619999999998</v>
       </c>
       <c r="E85" s="101" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F85" s="100">
         <v>6.0466920000000002</v>
       </c>
       <c r="G85" s="101" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H85" s="100">
         <v>4.9900729999999998</v>
       </c>
       <c r="I85" s="101" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J85" s="100">
         <v>4.9753480000000003</v>
       </c>
       <c r="K85" s="101" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="L85" s="102">
         <v>4.514246</v>
@@ -5949,44 +5696,41 @@
       <c r="M85" s="103">
         <v>29</v>
       </c>
-      <c r="N85" s="103">
+      <c r="N85" s="104">
         <v>73</v>
       </c>
-      <c r="O85" s="104">
-        <v>12.717418</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15" ht="78.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:14" ht="63" x14ac:dyDescent="0.35">
       <c r="A86" s="90"/>
       <c r="B86" s="98" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C86" s="99" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D86" s="100">
         <v>24.736415999999998</v>
       </c>
       <c r="E86" s="101" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F86" s="100">
         <v>12.992915</v>
       </c>
       <c r="G86" s="101" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H86" s="100">
         <v>4.1668700000000003</v>
       </c>
       <c r="I86" s="101" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J86" s="100">
         <v>2.9156650000000002</v>
       </c>
       <c r="K86" s="101" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L86" s="102">
         <v>2.6041189999999999</v>
@@ -5994,44 +5738,41 @@
       <c r="M86" s="103">
         <v>45</v>
       </c>
-      <c r="N86" s="103">
+      <c r="N86" s="104">
         <v>151</v>
       </c>
-      <c r="O86" s="104">
-        <v>22.823447999999999</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" ht="101.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:14" ht="84" x14ac:dyDescent="0.35">
       <c r="A87" s="90"/>
       <c r="B87" s="98" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C87" s="99" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D87" s="100">
         <v>8.8606400000000001</v>
       </c>
       <c r="E87" s="101" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F87" s="100">
         <v>5.0856760000000003</v>
       </c>
       <c r="G87" s="101" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H87" s="100">
         <v>4.9921860000000002</v>
       </c>
       <c r="I87" s="101" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J87" s="100">
         <v>2.3163520000000002</v>
       </c>
       <c r="K87" s="101" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L87" s="102">
         <v>2.1466379999999998</v>
@@ -6039,44 +5780,41 @@
       <c r="M87" s="103">
         <v>120</v>
       </c>
-      <c r="N87" s="103">
+      <c r="N87" s="104">
         <v>280</v>
       </c>
-      <c r="O87" s="104">
-        <v>25.147684000000002</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:14" ht="42" x14ac:dyDescent="0.35">
       <c r="A88" s="90"/>
       <c r="B88" s="98" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C88" s="99" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D88" s="100">
         <v>19.692644999999999</v>
       </c>
       <c r="E88" s="101" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F88" s="100">
         <v>11.306796</v>
       </c>
       <c r="G88" s="101" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H88" s="100">
         <v>10.277405999999999</v>
       </c>
       <c r="I88" s="101" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J88" s="100">
         <v>5.9244380000000003</v>
       </c>
       <c r="K88" s="101" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L88" s="102">
         <v>4.7301169999999999</v>
@@ -6084,44 +5822,41 @@
       <c r="M88" s="103">
         <v>16</v>
       </c>
-      <c r="N88" s="103">
+      <c r="N88" s="104">
         <v>94</v>
       </c>
-      <c r="O88" s="104">
-        <v>31.753447999999999</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15" ht="101.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:14" ht="84" x14ac:dyDescent="0.35">
       <c r="A89" s="90"/>
       <c r="B89" s="98" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C89" s="99" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D89" s="100">
         <v>5.8079130000000001</v>
       </c>
       <c r="E89" s="101" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F89" s="100">
         <v>4.5249189999999997</v>
       </c>
       <c r="G89" s="101" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H89" s="100">
         <v>4.2253910000000001</v>
       </c>
       <c r="I89" s="101" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="J89" s="100">
         <v>3.9324370000000002</v>
       </c>
       <c r="K89" s="101" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L89" s="102">
         <v>2.8386710000000002</v>
@@ -6129,44 +5864,41 @@
       <c r="M89" s="103">
         <v>155</v>
       </c>
-      <c r="N89" s="103">
+      <c r="N89" s="104">
         <v>357</v>
       </c>
-      <c r="O89" s="104">
-        <v>24.528884000000001</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="1:14" ht="63.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="90"/>
       <c r="B90" s="105" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C90" s="106" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D90" s="107">
         <v>6.1441169999999996</v>
       </c>
       <c r="E90" s="108" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F90" s="107">
         <v>5.6426550000000004</v>
       </c>
       <c r="G90" s="108" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H90" s="107">
         <v>5.0794930000000003</v>
       </c>
       <c r="I90" s="108" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J90" s="107">
         <v>3.2619039999999999</v>
       </c>
       <c r="K90" s="108" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L90" s="109">
         <v>3.1464050000000001</v>
@@ -6174,44 +5906,41 @@
       <c r="M90" s="110">
         <v>143</v>
       </c>
-      <c r="N90" s="110">
+      <c r="N90" s="111">
         <v>339</v>
       </c>
-      <c r="O90" s="111">
-        <v>33.232273999999997</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:14" ht="42" x14ac:dyDescent="0.35">
       <c r="A91" s="90"/>
       <c r="B91" s="118" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C91" s="119" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D91" s="120">
         <v>23.05922</v>
       </c>
       <c r="E91" s="121" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F91" s="120">
         <v>18.843457999999998</v>
       </c>
       <c r="G91" s="121" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H91" s="120">
         <v>7.5247460000000004</v>
       </c>
       <c r="I91" s="121" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J91" s="120">
         <v>4.2735159999999999</v>
       </c>
       <c r="K91" s="121" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="L91" s="122">
         <v>3.8538950000000001</v>
@@ -6219,44 +5948,41 @@
       <c r="M91" s="123">
         <v>16</v>
       </c>
-      <c r="N91" s="123">
+      <c r="N91" s="124">
         <v>69</v>
       </c>
-      <c r="O91" s="124">
-        <v>24.438631999999998</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15" ht="67.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:14" ht="63" x14ac:dyDescent="0.35">
       <c r="A92" s="90"/>
       <c r="B92" s="98" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C92" s="99" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D92" s="100">
         <v>8.2163649999999997</v>
       </c>
       <c r="E92" s="101" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F92" s="100">
         <v>7.5439660000000002</v>
       </c>
       <c r="G92" s="101" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H92" s="100">
         <v>7.50291</v>
       </c>
       <c r="I92" s="101" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J92" s="100">
         <v>6.8403349999999996</v>
       </c>
       <c r="K92" s="101" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L92" s="102">
         <v>4.2232519999999996</v>
@@ -6264,44 +5990,41 @@
       <c r="M92" s="103">
         <v>35</v>
       </c>
-      <c r="N92" s="103">
+      <c r="N92" s="104">
         <v>90</v>
       </c>
-      <c r="O92" s="104">
-        <v>16.423296000000001</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15" ht="56.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:14" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A93" s="90"/>
       <c r="B93" s="98" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C93" s="99" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D93" s="100">
         <v>16.269414000000001</v>
       </c>
       <c r="E93" s="101" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F93" s="100">
         <v>9.75441</v>
       </c>
       <c r="G93" s="101" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H93" s="100">
         <v>6.9367150000000004</v>
       </c>
       <c r="I93" s="101" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J93" s="100">
         <v>4.7249809999999997</v>
       </c>
       <c r="K93" s="101" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L93" s="102">
         <v>3.0991650000000002</v>
@@ -6309,44 +6032,41 @@
       <c r="M93" s="103">
         <v>37</v>
       </c>
-      <c r="N93" s="103">
+      <c r="N93" s="104">
         <v>111</v>
       </c>
-      <c r="O93" s="104">
-        <v>43.059488000000002</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15" ht="78.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:14" ht="63" x14ac:dyDescent="0.35">
       <c r="A94" s="90"/>
       <c r="B94" s="98" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C94" s="99" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D94" s="100">
         <v>15.957827</v>
       </c>
       <c r="E94" s="101" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F94" s="100">
         <v>14.646267</v>
       </c>
       <c r="G94" s="101" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="H94" s="100">
         <v>4.4695819999999999</v>
       </c>
       <c r="I94" s="101" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J94" s="100">
         <v>3.9883130000000002</v>
       </c>
       <c r="K94" s="101" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L94" s="102">
         <v>3.9207730000000001</v>
@@ -6354,44 +6074,41 @@
       <c r="M94" s="103">
         <v>36</v>
       </c>
-      <c r="N94" s="103">
+      <c r="N94" s="104">
         <v>121</v>
       </c>
-      <c r="O94" s="104">
-        <v>121.050003</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:14" ht="42" x14ac:dyDescent="0.35">
       <c r="A95" s="90"/>
       <c r="B95" s="98" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C95" s="99" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D95" s="100">
         <v>35.685606999999997</v>
       </c>
       <c r="E95" s="101" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F95" s="100">
         <v>9.8307420000000008</v>
       </c>
       <c r="G95" s="101" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H95" s="100">
         <v>9.024438</v>
       </c>
       <c r="I95" s="101" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J95" s="100">
         <v>5.2085179999999998</v>
       </c>
       <c r="K95" s="101" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L95" s="102">
         <v>4.035844</v>
@@ -6399,44 +6116,41 @@
       <c r="M95" s="103">
         <v>11</v>
       </c>
-      <c r="N95" s="103">
+      <c r="N95" s="104">
         <v>54</v>
       </c>
-      <c r="O95" s="104">
-        <v>19.110039</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="1:14" ht="63.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="90"/>
       <c r="B96" s="105" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C96" s="106" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D96" s="107">
         <v>22.146875000000001</v>
       </c>
       <c r="E96" s="108" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F96" s="107">
         <v>15.259995</v>
       </c>
       <c r="G96" s="108" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H96" s="107">
         <v>10.561802999999999</v>
       </c>
       <c r="I96" s="108" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J96" s="107">
         <v>4.1912450000000003</v>
       </c>
       <c r="K96" s="108" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L96" s="109">
         <v>2.9187409999999998</v>
@@ -6444,104 +6158,95 @@
       <c r="M96" s="110">
         <v>25</v>
       </c>
-      <c r="N96" s="110">
+      <c r="N96" s="111">
         <v>114</v>
       </c>
-      <c r="O96" s="111">
-        <v>33.450042000000003</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A97" s="90"/>
       <c r="B97" s="118" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C97" s="119" t="s">
-        <v>23</v>
+        <v>270</v>
       </c>
       <c r="D97" s="120" t="s">
-        <v>23</v>
+        <v>270</v>
       </c>
       <c r="E97" s="121" t="s">
-        <v>23</v>
+        <v>270</v>
       </c>
       <c r="F97" s="120" t="s">
-        <v>23</v>
+        <v>270</v>
       </c>
       <c r="G97" s="121" t="s">
-        <v>23</v>
+        <v>270</v>
       </c>
       <c r="H97" s="120" t="s">
-        <v>23</v>
+        <v>270</v>
       </c>
       <c r="I97" s="121" t="s">
-        <v>23</v>
+        <v>270</v>
       </c>
       <c r="J97" s="120" t="s">
-        <v>23</v>
+        <v>270</v>
       </c>
       <c r="K97" s="121" t="s">
-        <v>23</v>
+        <v>270</v>
       </c>
       <c r="L97" s="122" t="s">
-        <v>23</v>
+        <v>270</v>
       </c>
       <c r="M97" s="123" t="s">
-        <v>23</v>
-      </c>
-      <c r="N97" s="123" t="s">
-        <v>23</v>
-      </c>
-      <c r="O97" s="124">
-        <v>22.334413000000001</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>270</v>
+      </c>
+      <c r="N97" s="124" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="90"/>
       <c r="B98" s="105" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C98" s="106" t="s">
-        <v>23</v>
+        <v>270</v>
       </c>
       <c r="D98" s="107" t="s">
-        <v>23</v>
+        <v>270</v>
       </c>
       <c r="E98" s="108" t="s">
-        <v>23</v>
+        <v>270</v>
       </c>
       <c r="F98" s="107" t="s">
-        <v>23</v>
+        <v>270</v>
       </c>
       <c r="G98" s="108" t="s">
-        <v>23</v>
+        <v>270</v>
       </c>
       <c r="H98" s="107" t="s">
-        <v>23</v>
+        <v>270</v>
       </c>
       <c r="I98" s="108" t="s">
-        <v>23</v>
+        <v>270</v>
       </c>
       <c r="J98" s="107" t="s">
-        <v>23</v>
+        <v>270</v>
       </c>
       <c r="K98" s="108" t="s">
-        <v>23</v>
+        <v>270</v>
       </c>
       <c r="L98" s="109" t="s">
-        <v>23</v>
+        <v>270</v>
       </c>
       <c r="M98" s="110" t="s">
-        <v>23</v>
-      </c>
-      <c r="N98" s="110" t="s">
-        <v>23</v>
-      </c>
-      <c r="O98" s="111">
-        <v>21.577907</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+      <c r="N98" s="111" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A99" s="126"/>
       <c r="B99" s="127"/>
       <c r="C99" s="128"/>
@@ -6555,12 +6260,11 @@
       <c r="K99" s="128"/>
       <c r="L99" s="115"/>
       <c r="M99" s="116"/>
-      <c r="N99" s="116"/>
-      <c r="O99" s="129"/>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N99" s="129"/>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C100" s="130"/>
       <c r="D100" s="131"/>
@@ -6573,12 +6277,11 @@
       <c r="K100" s="130"/>
       <c r="L100" s="132"/>
       <c r="M100" s="133"/>
-      <c r="N100" s="133"/>
-      <c r="O100" s="134"/>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N100" s="134"/>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C101" s="130"/>
       <c r="D101" s="131"/>
@@ -6591,12 +6294,11 @@
       <c r="K101" s="130"/>
       <c r="L101" s="132"/>
       <c r="M101" s="133"/>
-      <c r="N101" s="133"/>
-      <c r="O101" s="134"/>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N101" s="134"/>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C102" s="130"/>
       <c r="D102" s="131"/>
@@ -6609,12 +6311,11 @@
       <c r="K102" s="130"/>
       <c r="L102" s="132"/>
       <c r="M102" s="133"/>
-      <c r="N102" s="133"/>
-      <c r="O102" s="134"/>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N102" s="134"/>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C103" s="130"/>
       <c r="D103" s="131"/>
@@ -6627,12 +6328,11 @@
       <c r="K103" s="130"/>
       <c r="L103" s="132"/>
       <c r="M103" s="133"/>
-      <c r="N103" s="133"/>
-      <c r="O103" s="134"/>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N103" s="134"/>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C104" s="130"/>
       <c r="D104" s="131"/>
@@ -6645,10 +6345,9 @@
       <c r="K104" s="130"/>
       <c r="L104" s="132"/>
       <c r="M104" s="133"/>
-      <c r="N104" s="133"/>
-      <c r="O104" s="134"/>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N104" s="134"/>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C105" s="130"/>
       <c r="D105" s="131"/>
       <c r="E105" s="130"/>
@@ -6660,10 +6359,9 @@
       <c r="K105" s="130"/>
       <c r="L105" s="132"/>
       <c r="M105" s="133"/>
-      <c r="N105" s="133"/>
-      <c r="O105" s="134"/>
-    </row>
-    <row r="106" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N105" s="134"/>
+    </row>
+    <row r="106" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B106" s="135"/>
       <c r="C106" s="130"/>
       <c r="D106" s="131"/>
@@ -6676,12 +6374,11 @@
       <c r="K106" s="130"/>
       <c r="L106" s="132"/>
       <c r="M106" s="133"/>
-      <c r="N106" s="133"/>
-      <c r="O106" s="134"/>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N106" s="134"/>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B107" s="136" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C107" s="130"/>
       <c r="D107" s="131"/>
@@ -6694,10 +6391,9 @@
       <c r="K107" s="130"/>
       <c r="L107" s="132"/>
       <c r="M107" s="133"/>
-      <c r="N107" s="133"/>
-      <c r="O107" s="134"/>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N107" s="134"/>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B108" s="2"/>
       <c r="C108" s="130"/>
       <c r="D108" s="131"/>
@@ -6710,12 +6406,11 @@
       <c r="K108" s="130"/>
       <c r="L108" s="132"/>
       <c r="M108" s="133"/>
-      <c r="N108" s="133"/>
-      <c r="O108" s="134"/>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N108" s="134"/>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B109" s="143" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C109" s="130"/>
       <c r="D109" s="131"/>
@@ -6728,12 +6423,11 @@
       <c r="K109" s="130"/>
       <c r="L109" s="132"/>
       <c r="M109" s="133"/>
-      <c r="N109" s="133"/>
-      <c r="O109" s="134"/>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N109" s="134"/>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B110" s="143" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C110" s="130"/>
       <c r="D110" s="131"/>
@@ -6746,12 +6440,11 @@
       <c r="K110" s="130"/>
       <c r="L110" s="132"/>
       <c r="M110" s="133"/>
-      <c r="N110" s="133"/>
-      <c r="O110" s="134"/>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N110" s="134"/>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B111" s="143" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C111" s="130"/>
       <c r="D111" s="131"/>
@@ -6764,12 +6457,11 @@
       <c r="K111" s="130"/>
       <c r="L111" s="132"/>
       <c r="M111" s="133"/>
-      <c r="N111" s="133"/>
-      <c r="O111" s="134"/>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N111" s="134"/>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B112" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C112" s="130"/>
       <c r="D112" s="131"/>
@@ -6782,10 +6474,9 @@
       <c r="K112" s="130"/>
       <c r="L112" s="132"/>
       <c r="M112" s="133"/>
-      <c r="N112" s="133"/>
-      <c r="O112" s="134"/>
-    </row>
-    <row r="113" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="N112" s="134"/>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B113" s="137"/>
       <c r="C113" s="130"/>
       <c r="D113" s="131"/>
@@ -6798,17 +6489,16 @@
       <c r="K113" s="130"/>
       <c r="L113" s="132"/>
       <c r="M113" s="133"/>
-      <c r="N113" s="133"/>
-      <c r="O113" s="134"/>
+      <c r="N113" s="134"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B113" r:id="rId1" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{CB311386-B181-4193-AB50-C2851A2C3FF6}"/>
-    <hyperlink ref="B109" r:id="rId2" xr:uid="{DBED22A3-E0D8-4F62-B61F-B1F6B9F42E90}"/>
-    <hyperlink ref="B110" r:id="rId3" xr:uid="{C756E729-B7A9-4246-8092-6693321753B6}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{7C184359-2181-4FB7-AA46-939E4A03DC22}"/>
-    <hyperlink ref="B112" r:id="rId5" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{B0AC48A3-DC99-47DE-BCF0-0F9A8B2779A4}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{22A18E15-78A7-45FC-A627-DD676088210F}"/>
+    <hyperlink ref="B113" r:id="rId1" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{F86D59E9-D4C8-45B4-873A-E7395CB0407A}"/>
+    <hyperlink ref="B109" r:id="rId2" xr:uid="{F4738A3D-95A1-4CB4-853E-C0D8909A3993}"/>
+    <hyperlink ref="B110" r:id="rId3" xr:uid="{E4AF802A-E407-4221-93D1-B8E4B10AB4CA}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{6E94934A-B63E-4E9C-BD81-8629E089280F}"/>
+    <hyperlink ref="B112" r:id="rId5" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{C9020BC6-13F4-4BF6-BBA4-1BC36DB8A55B}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{737C9379-ECE3-4A0B-B8F5-556D6F12C456}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>

--- a/AfDD_2025_Annex_Table_Tab28.xlsx
+++ b/AfDD_2025_Annex_Table_Tab28.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6387F813-5807-41E0-93DD-1040F3ED7C35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F66A911E-6399-4957-BB18-B480D3C87BBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-6075" windowWidth="29040" windowHeight="15720" xr2:uid="{424E5B6A-4B75-406D-85F3-7BAC2544AF00}"/>
+    <workbookView xWindow="28680" yWindow="-6075" windowWidth="29040" windowHeight="15720" xr2:uid="{FD0A720C-79BF-41DC-BA07-EE8838183387}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab28" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="279">
   <si>
     <t>Table 28: Export diversification</t>
   </si>
@@ -846,15 +846,6 @@
     <t>ROW, Landlocked Developing Countries</t>
   </si>
   <si>
-    <t>Africa, High and extreme fragility</t>
-  </si>
-  <si>
-    <t>..</t>
-  </si>
-  <si>
-    <t>ROW, High and extreme fragility</t>
-  </si>
-  <si>
     <t>Disclaimer: This table and any data included herein is without prejudice to the status of or sovereignty over any territory, to the delimitation of international frontiers and boundaries and to the name of any territory, city or area.</t>
   </si>
   <si>
@@ -864,7 +855,7 @@
     <t>ROW = "Rest of world"; LAC = "Latin American and Caribbean countries".</t>
   </si>
   <si>
-    <t>Regional Economic Communities: CEN-SAD = "Community of Sahel-Saharan States"; COMESA = "Common Market for Eastern and Southern Africa"; EAC = "East African Community"; ECCAS = "Economic Community of Central African States"; ECOWAS = "Economic Community of West African States"; IGAD = "Intergovernmental Authority on Development"; SADC = "Southern African Development Community"; UMA = "Arab Maghreb Union"; PALOP = "Países Africanos de Língua Oficial Portuguesa"; ASEAN = "Association of Southeast Asian Nations"; MERCOSUR = "Mercado Común del Sur". EU27 = "European Union (27 members)". OECD = "Organisation for Economic Co-operation and Development".</t>
+    <t>Regional Economic Communities: CEN-SAD = "Community of Sahel-Saharan States"; COMESA = "Common Market for Eastern and Southern Africa"; EAC = "East African Community"; ECCAS = "Economic Community of Central African States"; ECOWAS = "Economic Community of West African States"; IGAD = "Intergovernmental Authority on Development"; SADC = "Southern African Development Community"; UMA = "Arab Maghreb Union"; PALOP = "Países Africanos de Língua Oficial Portuguesa Portuguesa"; ASEAN = "Association of Southeast Asian Nations"; MERCOSUR = "Mercado Común del Sur". EU27 = "European Union (27 members)". OECD = "Organisation for Economic Co-operation and Development".</t>
   </si>
   <si>
     <t>Source: Author's calculations based on BACI International Trade Database at the Product-Level from CEPII (updated 30/01/2025).</t>
@@ -873,16 +864,16 @@
     <t>CLICK HERE to visit the website where you can find the Africa's Development Dynamics report, and where you can find links to explore these data further and look up historic values for these indicators.</t>
   </si>
   <si>
+    <t>CLICK HERE to go to the list of indicators, descriptions and details for more information about the indicators presented in this table.</t>
+  </si>
+  <si>
+    <t>CLICK HERE to go the list of countries, and country groupings used for aggregating indicators and see which countries belong to each country grouping.</t>
+  </si>
+  <si>
     <t>CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000 (in a compressed file format).</t>
   </si>
   <si>
-    <t>For more information about the indicators presented in this table, go to the List of indicators, descriptions and details, click here.</t>
-  </si>
-  <si>
-    <t>To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators, click here.</t>
-  </si>
-  <si>
-    <t>To see the full list of sources used in the Statistical Annex, click here.</t>
+    <t>CLICK HERE to go to the full list of sources used in the Statistical Annex, click here.</t>
   </si>
 </sst>
 </file>
@@ -893,7 +884,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1025,16 +1016,6 @@
       <u/>
       <sz val="12"/>
       <color rgb="FFD42C2D"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FFA54917"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1327,7 +1308,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1394,7 +1375,7 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="37" fontId="9" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -1415,7 +1396,7 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="37" fontId="9" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1430,7 +1411,7 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="37" fontId="9" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="39" fontId="9" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1457,7 +1438,7 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="37" fontId="9" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1481,7 +1462,7 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="37" fontId="11" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1502,7 +1483,7 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="37" fontId="9" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1523,7 +1504,7 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="37" fontId="9" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1544,7 +1525,7 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="37" fontId="9" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -1565,7 +1546,7 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="37" fontId="9" fillId="3" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -1592,7 +1573,7 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="37" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1616,7 +1597,7 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="37" fontId="6" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1637,7 +1618,7 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="37" fontId="14" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1658,7 +1639,7 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="37" fontId="6" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="39" fontId="6" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1676,7 +1657,7 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="37" fontId="6" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1697,7 +1678,7 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="37" fontId="14" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1727,7 +1708,6 @@
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2021,8 +2001,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1CB83A2-6BF9-4BC3-BCD7-77F73C07F616}">
-  <dimension ref="A1:N113"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA7106CB-1C4D-4672-B299-5BE51CD8D1D4}">
+  <dimension ref="A1:N114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -2030,18 +2010,18 @@
   <cols>
     <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.26953125" style="138" customWidth="1"/>
-    <col min="4" max="4" width="6.26953125" style="139" customWidth="1"/>
-    <col min="5" max="5" width="27.26953125" style="138" customWidth="1"/>
-    <col min="6" max="6" width="6.26953125" style="139" customWidth="1"/>
-    <col min="7" max="7" width="27.26953125" style="138" customWidth="1"/>
-    <col min="8" max="8" width="6.26953125" style="139" customWidth="1"/>
-    <col min="9" max="9" width="27.26953125" style="138" customWidth="1"/>
-    <col min="10" max="10" width="6.26953125" style="139" customWidth="1"/>
-    <col min="11" max="11" width="27.26953125" style="138" customWidth="1"/>
-    <col min="12" max="12" width="6.26953125" style="140" customWidth="1"/>
-    <col min="13" max="13" width="14.453125" style="141" customWidth="1"/>
-    <col min="14" max="14" width="14.453125" style="142" customWidth="1"/>
+    <col min="3" max="3" width="27.26953125" style="137" customWidth="1"/>
+    <col min="4" max="4" width="6.26953125" style="138" customWidth="1"/>
+    <col min="5" max="5" width="27.26953125" style="137" customWidth="1"/>
+    <col min="6" max="6" width="6.26953125" style="138" customWidth="1"/>
+    <col min="7" max="7" width="27.26953125" style="137" customWidth="1"/>
+    <col min="8" max="8" width="6.26953125" style="138" customWidth="1"/>
+    <col min="9" max="9" width="27.26953125" style="137" customWidth="1"/>
+    <col min="10" max="10" width="6.26953125" style="138" customWidth="1"/>
+    <col min="11" max="11" width="27.26953125" style="137" customWidth="1"/>
+    <col min="12" max="12" width="6.26953125" style="139" customWidth="1"/>
+    <col min="13" max="13" width="14.453125" style="140" customWidth="1"/>
+    <col min="14" max="14" width="14.453125" style="141" customWidth="1"/>
     <col min="15" max="25" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6163,88 +6143,36 @@
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A97" s="90"/>
-      <c r="B97" s="118" t="s">
-        <v>269</v>
-      </c>
-      <c r="C97" s="119" t="s">
-        <v>270</v>
-      </c>
-      <c r="D97" s="120" t="s">
-        <v>270</v>
-      </c>
-      <c r="E97" s="121" t="s">
-        <v>270</v>
-      </c>
-      <c r="F97" s="120" t="s">
-        <v>270</v>
-      </c>
-      <c r="G97" s="121" t="s">
-        <v>270</v>
-      </c>
-      <c r="H97" s="120" t="s">
-        <v>270</v>
-      </c>
-      <c r="I97" s="121" t="s">
-        <v>270</v>
-      </c>
-      <c r="J97" s="120" t="s">
-        <v>270</v>
-      </c>
-      <c r="K97" s="121" t="s">
-        <v>270</v>
-      </c>
-      <c r="L97" s="122" t="s">
-        <v>270</v>
-      </c>
-      <c r="M97" s="123" t="s">
-        <v>270</v>
-      </c>
-      <c r="N97" s="124" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A98" s="90"/>
-      <c r="B98" s="105" t="s">
-        <v>271</v>
-      </c>
-      <c r="C98" s="106" t="s">
-        <v>270</v>
-      </c>
-      <c r="D98" s="107" t="s">
-        <v>270</v>
-      </c>
-      <c r="E98" s="108" t="s">
-        <v>270</v>
-      </c>
-      <c r="F98" s="107" t="s">
-        <v>270</v>
-      </c>
-      <c r="G98" s="108" t="s">
-        <v>270</v>
-      </c>
-      <c r="H98" s="107" t="s">
-        <v>270</v>
-      </c>
-      <c r="I98" s="108" t="s">
-        <v>270</v>
-      </c>
-      <c r="J98" s="107" t="s">
-        <v>270</v>
-      </c>
-      <c r="K98" s="108" t="s">
-        <v>270</v>
-      </c>
-      <c r="L98" s="109" t="s">
-        <v>270</v>
-      </c>
-      <c r="M98" s="110" t="s">
-        <v>270</v>
-      </c>
-      <c r="N98" s="111" t="s">
-        <v>270</v>
-      </c>
+      <c r="A97" s="126"/>
+      <c r="B97" s="127"/>
+      <c r="C97" s="128"/>
+      <c r="D97" s="113"/>
+      <c r="E97" s="128"/>
+      <c r="F97" s="113"/>
+      <c r="G97" s="128"/>
+      <c r="H97" s="113"/>
+      <c r="I97" s="128"/>
+      <c r="J97" s="113"/>
+      <c r="K97" s="128"/>
+      <c r="L97" s="115"/>
+      <c r="M97" s="116"/>
+      <c r="N97" s="129"/>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A98" s="126"/>
+      <c r="B98" s="127"/>
+      <c r="C98" s="128"/>
+      <c r="D98" s="113"/>
+      <c r="E98" s="128"/>
+      <c r="F98" s="113"/>
+      <c r="G98" s="128"/>
+      <c r="H98" s="113"/>
+      <c r="I98" s="128"/>
+      <c r="J98" s="113"/>
+      <c r="K98" s="128"/>
+      <c r="L98" s="115"/>
+      <c r="M98" s="116"/>
+      <c r="N98" s="129"/>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A99" s="126"/>
@@ -6264,7 +6192,7 @@
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C100" s="130"/>
       <c r="D100" s="131"/>
@@ -6281,7 +6209,7 @@
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C101" s="130"/>
       <c r="D101" s="131"/>
@@ -6298,7 +6226,7 @@
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C102" s="130"/>
       <c r="D102" s="131"/>
@@ -6315,7 +6243,7 @@
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C103" s="130"/>
       <c r="D103" s="131"/>
@@ -6332,7 +6260,7 @@
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C104" s="130"/>
       <c r="D104" s="131"/>
@@ -6376,10 +6304,8 @@
       <c r="M106" s="133"/>
       <c r="N106" s="134"/>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B107" s="136" t="s">
-        <v>277</v>
-      </c>
+    <row r="107" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B107" s="135"/>
       <c r="C107" s="130"/>
       <c r="D107" s="131"/>
       <c r="E107" s="130"/>
@@ -6394,7 +6320,9 @@
       <c r="N107" s="134"/>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B108" s="2"/>
+      <c r="B108" s="142" t="s">
+        <v>274</v>
+      </c>
       <c r="C108" s="130"/>
       <c r="D108" s="131"/>
       <c r="E108" s="130"/>
@@ -6409,9 +6337,7 @@
       <c r="N108" s="134"/>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B109" s="143" t="s">
-        <v>279</v>
-      </c>
+      <c r="B109" s="2"/>
       <c r="C109" s="130"/>
       <c r="D109" s="131"/>
       <c r="E109" s="130"/>
@@ -6426,8 +6352,8 @@
       <c r="N109" s="134"/>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B110" s="143" t="s">
-        <v>280</v>
+      <c r="B110" s="142" t="s">
+        <v>275</v>
       </c>
       <c r="C110" s="130"/>
       <c r="D110" s="131"/>
@@ -6443,8 +6369,8 @@
       <c r="N110" s="134"/>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B111" s="143" t="s">
-        <v>281</v>
+      <c r="B111" s="142" t="s">
+        <v>276</v>
       </c>
       <c r="C111" s="130"/>
       <c r="D111" s="131"/>
@@ -6460,7 +6386,7 @@
       <c r="N111" s="134"/>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B112" s="2" t="s">
+      <c r="B112" s="142" t="s">
         <v>278</v>
       </c>
       <c r="C112" s="130"/>
@@ -6477,7 +6403,9 @@
       <c r="N112" s="134"/>
     </row>
     <row r="113" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B113" s="137"/>
+      <c r="B113" s="142" t="s">
+        <v>277</v>
+      </c>
       <c r="C113" s="130"/>
       <c r="D113" s="131"/>
       <c r="E113" s="130"/>
@@ -6491,17 +6419,31 @@
       <c r="M113" s="133"/>
       <c r="N113" s="134"/>
     </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B114" s="136"/>
+      <c r="C114" s="130"/>
+      <c r="D114" s="131"/>
+      <c r="E114" s="130"/>
+      <c r="F114" s="131"/>
+      <c r="G114" s="130"/>
+      <c r="H114" s="131"/>
+      <c r="I114" s="130"/>
+      <c r="J114" s="131"/>
+      <c r="K114" s="130"/>
+      <c r="L114" s="132"/>
+      <c r="M114" s="133"/>
+      <c r="N114" s="134"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B113" r:id="rId1" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{F86D59E9-D4C8-45B4-873A-E7395CB0407A}"/>
-    <hyperlink ref="B109" r:id="rId2" xr:uid="{F4738A3D-95A1-4CB4-853E-C0D8909A3993}"/>
-    <hyperlink ref="B110" r:id="rId3" xr:uid="{E4AF802A-E407-4221-93D1-B8E4B10AB4CA}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{6E94934A-B63E-4E9C-BD81-8629E089280F}"/>
-    <hyperlink ref="B112" r:id="rId5" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{C9020BC6-13F4-4BF6-BBA4-1BC36DB8A55B}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{737C9379-ECE3-4A0B-B8F5-556D6F12C456}"/>
+    <hyperlink ref="B110" r:id="rId1" xr:uid="{16CF6E7F-E1DD-41EB-9D1E-F9A6A16A8D25}"/>
+    <hyperlink ref="B111" r:id="rId2" xr:uid="{5445E422-DFAB-4B83-80B3-781A13C613BE}"/>
+    <hyperlink ref="B108" r:id="rId3" xr:uid="{0FD26580-C736-41B8-9B91-ED796C8B2AF7}"/>
+    <hyperlink ref="B113" r:id="rId4" xr:uid="{ED3174A4-F3B0-4312-A568-0156619149E2}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{DB135570-8F89-4B71-ACFE-D78CF8507B30}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
   <headerFooter>
     <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K0000FF Restricted Use - À usage restreint</oddFooter>
   </headerFooter>
